--- a/sample-data/sample_form.xlsx
+++ b/sample-data/sample_form.xlsx
@@ -486,92 +486,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="10.5" customWidth="1" min="4" max="4"/>
-    <col width="10.5" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7.5" customWidth="1" min="8" max="8"/>
-    <col width="7.5" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="5.2" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="3" max="3"/>
+    <col width="10.4" customWidth="1" min="4" max="4"/>
+    <col width="10.4" customWidth="1" min="5" max="5"/>
+    <col width="9.1" customWidth="1" min="6" max="6"/>
+    <col width="9.1" customWidth="1" min="7" max="7"/>
+    <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
+    <col width="9.1" customWidth="1" min="11" max="11"/>
+    <col width="9.1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Versuch: </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>14607</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vermessung am: </t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermessung  </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Parzelle: </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am: </t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstamt: </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>44 Schönheide</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">durch: </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstamt: </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>44 Schönheide</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Revier: </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Hundshübel</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baumart</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Baumnummer</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -2390,22 +2394,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L69">
     <cfRule type="cellIs" priority="1" operator="equal" stopIfTrue="1">
@@ -2446,92 +2450,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="10.5" customWidth="1" min="4" max="4"/>
-    <col width="10.5" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7.5" customWidth="1" min="8" max="8"/>
-    <col width="7.5" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="5.2" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="3" max="3"/>
+    <col width="10.4" customWidth="1" min="4" max="4"/>
+    <col width="10.4" customWidth="1" min="5" max="5"/>
+    <col width="9.1" customWidth="1" min="6" max="6"/>
+    <col width="9.1" customWidth="1" min="7" max="7"/>
+    <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
+    <col width="9.1" customWidth="1" min="11" max="11"/>
+    <col width="9.1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Versuch: </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>14607</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vermessung am: </t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermessung  </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Parzelle: </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am: </t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstamt: </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>44 Schönheide</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">durch: </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstamt: </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>44 Schönheide</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Revier: </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Hundshübel</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baumart</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Baumnummer</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -4616,22 +4624,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L79">
     <cfRule type="cellIs" priority="2" operator="equal" stopIfTrue="1">
@@ -4672,92 +4680,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="10.5" customWidth="1" min="4" max="4"/>
-    <col width="10.5" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7.5" customWidth="1" min="8" max="8"/>
-    <col width="7.5" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="5.2" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="3" max="3"/>
+    <col width="10.4" customWidth="1" min="4" max="4"/>
+    <col width="10.4" customWidth="1" min="5" max="5"/>
+    <col width="9.1" customWidth="1" min="6" max="6"/>
+    <col width="9.1" customWidth="1" min="7" max="7"/>
+    <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
+    <col width="9.1" customWidth="1" min="11" max="11"/>
+    <col width="9.1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Versuch: </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>14607</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vermessung am: </t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermessung  </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Parzelle: </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am: </t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstamt: </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>44 Schönheide</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">durch: </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstamt: </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>44 Schönheide</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Revier: </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Hundshübel</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baumart</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Baumnummer</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -7187,22 +7199,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L90">
     <cfRule type="cellIs" priority="3" operator="equal" stopIfTrue="1">
@@ -7243,92 +7255,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="10.5" customWidth="1" min="4" max="4"/>
-    <col width="10.5" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7.5" customWidth="1" min="8" max="8"/>
-    <col width="7.5" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="5.2" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="3" max="3"/>
+    <col width="10.4" customWidth="1" min="4" max="4"/>
+    <col width="10.4" customWidth="1" min="5" max="5"/>
+    <col width="9.1" customWidth="1" min="6" max="6"/>
+    <col width="9.1" customWidth="1" min="7" max="7"/>
+    <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
+    <col width="9.1" customWidth="1" min="11" max="11"/>
+    <col width="9.1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Versuch: </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>14607</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vermessung am: </t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermessung  </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Parzelle: </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am: </t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstamt: </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>44 Schönheide</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">durch: </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstamt: </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>44 Schönheide</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Revier: </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Hundshübel</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baumart</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Baumnummer</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -10542,22 +10558,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L120">
     <cfRule type="cellIs" priority="4" operator="equal" stopIfTrue="1">
@@ -10598,92 +10614,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="10.5" customWidth="1" min="4" max="4"/>
-    <col width="10.5" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7.5" customWidth="1" min="8" max="8"/>
-    <col width="7.5" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="5.2" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="3" max="3"/>
+    <col width="10.4" customWidth="1" min="4" max="4"/>
+    <col width="10.4" customWidth="1" min="5" max="5"/>
+    <col width="9.1" customWidth="1" min="6" max="6"/>
+    <col width="9.1" customWidth="1" min="7" max="7"/>
+    <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
+    <col width="9.1" customWidth="1" min="11" max="11"/>
+    <col width="9.1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Versuch: </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>14607</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vermessung am: </t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermessung  </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Parzelle: </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am: </t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstamt: </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>44 Schönheide</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">durch: </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstamt: </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>44 Schönheide</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Revier: </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Hundshübel</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baumart</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Baumnummer</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -13288,22 +13308,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L97">
     <cfRule type="cellIs" priority="5" operator="equal" stopIfTrue="1">
@@ -13344,92 +13364,96 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="10.5" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="10.5" customWidth="1" min="4" max="4"/>
-    <col width="10.5" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7.5" customWidth="1" min="8" max="8"/>
-    <col width="7.5" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="5.2" customWidth="1" min="1" max="1"/>
+    <col width="5.2" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="3" max="3"/>
+    <col width="10.4" customWidth="1" min="4" max="4"/>
+    <col width="10.4" customWidth="1" min="5" max="5"/>
+    <col width="9.1" customWidth="1" min="6" max="6"/>
+    <col width="9.1" customWidth="1" min="7" max="7"/>
+    <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
+    <col width="9.1" customWidth="1" min="11" max="11"/>
+    <col width="9.1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Versuch: </t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>14607</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vermessung am: </t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vermessung  </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Parzelle: </t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am: </t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstamt: </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>44 Schönheide</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">durch: </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstamt: </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>44 Schönheide</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Revier: </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Hundshübel</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Baumart</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Baumnummer</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -16252,22 +16276,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L105">
     <cfRule type="cellIs" priority="6" operator="equal" stopIfTrue="1">

--- a/sample-data/sample_form.xlsx
+++ b/sample-data/sample_form.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -497,6 +497,7 @@
     <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
     <col width="9.1" customWidth="1" min="11" max="11"/>
     <col width="9.1" customWidth="1" min="12" max="12"/>
+    <col width="9.1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -622,6 +623,11 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Diff D</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Diff H</t>
         </is>
       </c>
     </row>
@@ -653,6 +659,10 @@
         <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
+      <c r="M7" s="6">
+        <f>IF(AND(ISNUMBER(G7), ISNUMBER(F7)), G7 - F7, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -680,6 +690,10 @@
       </c>
       <c r="L8" s="6">
         <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
+        <v/>
+      </c>
+      <c r="M8" s="6">
+        <f>IF(AND(ISNUMBER(G8), ISNUMBER(F8)), G8 - F8, "")</f>
         <v/>
       </c>
     </row>
@@ -709,6 +723,10 @@
         <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
+      <c r="M9" s="6">
+        <f>IF(AND(ISNUMBER(G9), ISNUMBER(F9)), G9 - F9, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -738,6 +756,10 @@
         <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
+      <c r="M10" s="6">
+        <f>IF(AND(ISNUMBER(G10), ISNUMBER(F10)), G10 - F10, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -767,6 +789,10 @@
         <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
+      <c r="M11" s="6">
+        <f>IF(AND(ISNUMBER(G11), ISNUMBER(F11)), G11 - F11, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -796,6 +822,10 @@
         <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
+      <c r="M12" s="6">
+        <f>IF(AND(ISNUMBER(G12), ISNUMBER(F12)), G12 - F12, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -825,6 +855,10 @@
         <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
+      <c r="M13" s="6">
+        <f>IF(AND(ISNUMBER(G13), ISNUMBER(F13)), G13 - F13, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -854,6 +888,10 @@
         <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
+      <c r="M14" s="6">
+        <f>IF(AND(ISNUMBER(G14), ISNUMBER(F14)), G14 - F14, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -883,6 +921,10 @@
         <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
+      <c r="M15" s="6">
+        <f>IF(AND(ISNUMBER(G15), ISNUMBER(F15)), G15 - F15, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -912,6 +954,10 @@
         <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
+      <c r="M16" s="6">
+        <f>IF(AND(ISNUMBER(G16), ISNUMBER(F16)), G16 - F16, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -941,6 +987,10 @@
         <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
+      <c r="M17" s="6">
+        <f>IF(AND(ISNUMBER(G17), ISNUMBER(F17)), G17 - F17, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -968,6 +1018,10 @@
       </c>
       <c r="L18" s="6">
         <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="6">
+        <f>IF(AND(ISNUMBER(G18), ISNUMBER(F18)), G18 - F18, "")</f>
         <v/>
       </c>
     </row>
@@ -997,6 +1051,10 @@
         <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
+      <c r="M19" s="6">
+        <f>IF(AND(ISNUMBER(G19), ISNUMBER(F19)), G19 - F19, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1024,6 +1082,10 @@
       </c>
       <c r="L20" s="6">
         <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
+        <v/>
+      </c>
+      <c r="M20" s="6">
+        <f>IF(AND(ISNUMBER(G20), ISNUMBER(F20)), G20 - F20, "")</f>
         <v/>
       </c>
     </row>
@@ -1053,6 +1115,10 @@
         <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
+      <c r="M21" s="6">
+        <f>IF(AND(ISNUMBER(G21), ISNUMBER(F21)), G21 - F21, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1082,6 +1148,10 @@
         <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
+      <c r="M22" s="6">
+        <f>IF(AND(ISNUMBER(G22), ISNUMBER(F22)), G22 - F22, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1109,6 +1179,10 @@
       </c>
       <c r="L23" s="6">
         <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
+        <v/>
+      </c>
+      <c r="M23" s="6">
+        <f>IF(AND(ISNUMBER(G23), ISNUMBER(F23)), G23 - F23, "")</f>
         <v/>
       </c>
     </row>
@@ -1138,6 +1212,10 @@
         <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
+      <c r="M24" s="6">
+        <f>IF(AND(ISNUMBER(G24), ISNUMBER(F24)), G24 - F24, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1165,6 +1243,10 @@
         <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
+      <c r="M25" s="6">
+        <f>IF(AND(ISNUMBER(G25), ISNUMBER(F25)), G25 - F25, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1192,6 +1274,10 @@
         <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
+      <c r="M26" s="6">
+        <f>IF(AND(ISNUMBER(G26), ISNUMBER(F26)), G26 - F26, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1221,6 +1307,10 @@
         <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
+      <c r="M27" s="6">
+        <f>IF(AND(ISNUMBER(G27), ISNUMBER(F27)), G27 - F27, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1248,6 +1338,10 @@
       </c>
       <c r="L28" s="6">
         <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
+        <v/>
+      </c>
+      <c r="M28" s="6">
+        <f>IF(AND(ISNUMBER(G28), ISNUMBER(F28)), G28 - F28, "")</f>
         <v/>
       </c>
     </row>
@@ -1277,6 +1371,10 @@
         <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
+      <c r="M29" s="6">
+        <f>IF(AND(ISNUMBER(G29), ISNUMBER(F29)), G29 - F29, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1306,6 +1404,10 @@
         <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
+      <c r="M30" s="6">
+        <f>IF(AND(ISNUMBER(G30), ISNUMBER(F30)), G30 - F30, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1333,6 +1435,10 @@
       </c>
       <c r="L31" s="6">
         <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="6">
+        <f>IF(AND(ISNUMBER(G31), ISNUMBER(F31)), G31 - F31, "")</f>
         <v/>
       </c>
     </row>
@@ -1362,6 +1468,10 @@
         <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
+      <c r="M32" s="6">
+        <f>IF(AND(ISNUMBER(G32), ISNUMBER(F32)), G32 - F32, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1391,6 +1501,10 @@
         <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
+      <c r="M33" s="6">
+        <f>IF(AND(ISNUMBER(G33), ISNUMBER(F33)), G33 - F33, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1418,6 +1532,10 @@
       </c>
       <c r="L34" s="6">
         <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="6">
+        <f>IF(AND(ISNUMBER(G34), ISNUMBER(F34)), G34 - F34, "")</f>
         <v/>
       </c>
     </row>
@@ -1447,6 +1565,10 @@
         <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
+      <c r="M35" s="6">
+        <f>IF(AND(ISNUMBER(G35), ISNUMBER(F35)), G35 - F35, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -1474,6 +1596,10 @@
         <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
+      <c r="M36" s="6">
+        <f>IF(AND(ISNUMBER(G36), ISNUMBER(F36)), G36 - F36, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -1501,6 +1627,10 @@
         <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
+      <c r="M37" s="6">
+        <f>IF(AND(ISNUMBER(G37), ISNUMBER(F37)), G37 - F37, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1528,6 +1658,10 @@
         <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
+      <c r="M38" s="6">
+        <f>IF(AND(ISNUMBER(G38), ISNUMBER(F38)), G38 - F38, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -1555,6 +1689,10 @@
         <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
+      <c r="M39" s="6">
+        <f>IF(AND(ISNUMBER(G39), ISNUMBER(F39)), G39 - F39, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1584,6 +1722,10 @@
         <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
+      <c r="M40" s="6">
+        <f>IF(AND(ISNUMBER(G40), ISNUMBER(F40)), G40 - F40, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1611,6 +1753,10 @@
       </c>
       <c r="L41" s="6">
         <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
+        <v/>
+      </c>
+      <c r="M41" s="6">
+        <f>IF(AND(ISNUMBER(G41), ISNUMBER(F41)), G41 - F41, "")</f>
         <v/>
       </c>
     </row>
@@ -1640,6 +1786,10 @@
         <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
+      <c r="M42" s="6">
+        <f>IF(AND(ISNUMBER(G42), ISNUMBER(F42)), G42 - F42, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -1667,6 +1817,10 @@
         <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
+      <c r="M43" s="6">
+        <f>IF(AND(ISNUMBER(G43), ISNUMBER(F43)), G43 - F43, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -1694,6 +1848,10 @@
       </c>
       <c r="L44" s="6">
         <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
+        <v/>
+      </c>
+      <c r="M44" s="6">
+        <f>IF(AND(ISNUMBER(G44), ISNUMBER(F44)), G44 - F44, "")</f>
         <v/>
       </c>
     </row>
@@ -1723,6 +1881,10 @@
         <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
+      <c r="M45" s="6">
+        <f>IF(AND(ISNUMBER(G45), ISNUMBER(F45)), G45 - F45, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -1750,6 +1912,10 @@
         <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
+      <c r="M46" s="6">
+        <f>IF(AND(ISNUMBER(G46), ISNUMBER(F46)), G46 - F46, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -1777,6 +1943,10 @@
       </c>
       <c r="L47" s="6">
         <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="6">
+        <f>IF(AND(ISNUMBER(G47), ISNUMBER(F47)), G47 - F47, "")</f>
         <v/>
       </c>
     </row>
@@ -1806,6 +1976,10 @@
         <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
+      <c r="M48" s="6">
+        <f>IF(AND(ISNUMBER(G48), ISNUMBER(F48)), G48 - F48, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -1833,6 +2007,10 @@
         <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
+      <c r="M49" s="6">
+        <f>IF(AND(ISNUMBER(G49), ISNUMBER(F49)), G49 - F49, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -1860,6 +2038,10 @@
         <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
+      <c r="M50" s="6">
+        <f>IF(AND(ISNUMBER(G50), ISNUMBER(F50)), G50 - F50, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -1887,6 +2069,10 @@
         <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
+      <c r="M51" s="6">
+        <f>IF(AND(ISNUMBER(G51), ISNUMBER(F51)), G51 - F51, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -1914,6 +2100,10 @@
         <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
+      <c r="M52" s="6">
+        <f>IF(AND(ISNUMBER(G52), ISNUMBER(F52)), G52 - F52, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -1941,6 +2131,10 @@
       </c>
       <c r="L53" s="6">
         <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="6">
+        <f>IF(AND(ISNUMBER(G53), ISNUMBER(F53)), G53 - F53, "")</f>
         <v/>
       </c>
     </row>
@@ -1970,6 +2164,10 @@
         <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
+      <c r="M54" s="6">
+        <f>IF(AND(ISNUMBER(G54), ISNUMBER(F54)), G54 - F54, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -1997,6 +2195,10 @@
         <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
+      <c r="M55" s="6">
+        <f>IF(AND(ISNUMBER(G55), ISNUMBER(F55)), G55 - F55, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2026,6 +2228,10 @@
         <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
+      <c r="M56" s="6">
+        <f>IF(AND(ISNUMBER(G56), ISNUMBER(F56)), G56 - F56, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -2055,6 +2261,10 @@
         <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
+      <c r="M57" s="6">
+        <f>IF(AND(ISNUMBER(G57), ISNUMBER(F57)), G57 - F57, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -2082,6 +2292,10 @@
       </c>
       <c r="L58" s="6">
         <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="6">
+        <f>IF(AND(ISNUMBER(G58), ISNUMBER(F58)), G58 - F58, "")</f>
         <v/>
       </c>
     </row>
@@ -2111,6 +2325,10 @@
         <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
+      <c r="M59" s="6">
+        <f>IF(AND(ISNUMBER(G59), ISNUMBER(F59)), G59 - F59, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -2140,6 +2358,10 @@
         <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
+      <c r="M60" s="6">
+        <f>IF(AND(ISNUMBER(G60), ISNUMBER(F60)), G60 - F60, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -2167,6 +2389,10 @@
       </c>
       <c r="L61" s="6">
         <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
+        <v/>
+      </c>
+      <c r="M61" s="6">
+        <f>IF(AND(ISNUMBER(G61), ISNUMBER(F61)), G61 - F61, "")</f>
         <v/>
       </c>
     </row>
@@ -2196,6 +2422,10 @@
         <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
+      <c r="M62" s="6">
+        <f>IF(AND(ISNUMBER(G62), ISNUMBER(F62)), G62 - F62, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -2223,6 +2453,10 @@
         <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
+      <c r="M63" s="6">
+        <f>IF(AND(ISNUMBER(G63), ISNUMBER(F63)), G63 - F63, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -2252,6 +2486,10 @@
         <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
+      <c r="M64" s="6">
+        <f>IF(AND(ISNUMBER(G64), ISNUMBER(F64)), G64 - F64, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -2279,6 +2517,10 @@
       </c>
       <c r="L65" s="6">
         <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="6">
+        <f>IF(AND(ISNUMBER(G65), ISNUMBER(F65)), G65 - F65, "")</f>
         <v/>
       </c>
     </row>
@@ -2308,6 +2550,10 @@
         <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
+      <c r="M66" s="6">
+        <f>IF(AND(ISNUMBER(G66), ISNUMBER(F66)), G66 - F66, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -2335,6 +2581,10 @@
       </c>
       <c r="L67" s="6">
         <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="6">
+        <f>IF(AND(ISNUMBER(G67), ISNUMBER(F67)), G67 - F67, "")</f>
         <v/>
       </c>
     </row>
@@ -2364,6 +2614,10 @@
         <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
+      <c r="M68" s="6">
+        <f>IF(AND(ISNUMBER(G68), ISNUMBER(F68)), G68 - F68, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -2389,6 +2643,10 @@
       </c>
       <c r="L69" s="6">
         <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
+        <v/>
+      </c>
+      <c r="M69" s="6">
+        <f>IF(AND(ISNUMBER(G69), ISNUMBER(F69)), G69 - F69, "")</f>
         <v/>
       </c>
     </row>
@@ -2426,8 +2684,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M69">
+    <cfRule type="cellIs" priority="2" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="00C00000"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A7:I69">
-    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>OR(LEN(TRIM($I7))&gt;0,LEN(TRIM($H7))&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2441,7 +2714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2461,6 +2734,7 @@
     <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
     <col width="9.1" customWidth="1" min="11" max="11"/>
     <col width="9.1" customWidth="1" min="12" max="12"/>
+    <col width="9.1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2586,6 +2860,11 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Diff D</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Diff H</t>
         </is>
       </c>
     </row>
@@ -2615,6 +2894,10 @@
       </c>
       <c r="L7" s="6">
         <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
+        <v/>
+      </c>
+      <c r="M7" s="6">
+        <f>IF(AND(ISNUMBER(G7), ISNUMBER(F7)), G7 - F7, "")</f>
         <v/>
       </c>
     </row>
@@ -2644,6 +2927,10 @@
         <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
+      <c r="M8" s="6">
+        <f>IF(AND(ISNUMBER(G8), ISNUMBER(F8)), G8 - F8, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -2671,6 +2958,10 @@
         <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
+      <c r="M9" s="6">
+        <f>IF(AND(ISNUMBER(G9), ISNUMBER(F9)), G9 - F9, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -2698,6 +2989,10 @@
         <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
+      <c r="M10" s="6">
+        <f>IF(AND(ISNUMBER(G10), ISNUMBER(F10)), G10 - F10, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -2727,6 +3022,10 @@
         <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
+      <c r="M11" s="6">
+        <f>IF(AND(ISNUMBER(G11), ISNUMBER(F11)), G11 - F11, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -2754,6 +3053,10 @@
       </c>
       <c r="L12" s="6">
         <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
+        <v/>
+      </c>
+      <c r="M12" s="6">
+        <f>IF(AND(ISNUMBER(G12), ISNUMBER(F12)), G12 - F12, "")</f>
         <v/>
       </c>
     </row>
@@ -2783,6 +3086,10 @@
         <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
+      <c r="M13" s="6">
+        <f>IF(AND(ISNUMBER(G13), ISNUMBER(F13)), G13 - F13, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -2810,6 +3117,10 @@
         <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
+      <c r="M14" s="6">
+        <f>IF(AND(ISNUMBER(G14), ISNUMBER(F14)), G14 - F14, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -2837,6 +3148,10 @@
         <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
+      <c r="M15" s="6">
+        <f>IF(AND(ISNUMBER(G15), ISNUMBER(F15)), G15 - F15, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -2866,6 +3181,10 @@
         <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
+      <c r="M16" s="6">
+        <f>IF(AND(ISNUMBER(G16), ISNUMBER(F16)), G16 - F16, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -2895,6 +3214,10 @@
         <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
+      <c r="M17" s="6">
+        <f>IF(AND(ISNUMBER(G17), ISNUMBER(F17)), G17 - F17, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -2924,6 +3247,10 @@
         <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
+      <c r="M18" s="6">
+        <f>IF(AND(ISNUMBER(G18), ISNUMBER(F18)), G18 - F18, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -2951,6 +3278,10 @@
       </c>
       <c r="L19" s="6">
         <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
+        <v/>
+      </c>
+      <c r="M19" s="6">
+        <f>IF(AND(ISNUMBER(G19), ISNUMBER(F19)), G19 - F19, "")</f>
         <v/>
       </c>
     </row>
@@ -2980,6 +3311,10 @@
         <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
+      <c r="M20" s="6">
+        <f>IF(AND(ISNUMBER(G20), ISNUMBER(F20)), G20 - F20, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -3007,6 +3342,10 @@
         <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
+      <c r="M21" s="6">
+        <f>IF(AND(ISNUMBER(G21), ISNUMBER(F21)), G21 - F21, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -3034,6 +3373,10 @@
         <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
+      <c r="M22" s="6">
+        <f>IF(AND(ISNUMBER(G22), ISNUMBER(F22)), G22 - F22, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -3061,6 +3404,10 @@
         <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
+      <c r="M23" s="6">
+        <f>IF(AND(ISNUMBER(G23), ISNUMBER(F23)), G23 - F23, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -3088,6 +3435,10 @@
         <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
+      <c r="M24" s="6">
+        <f>IF(AND(ISNUMBER(G24), ISNUMBER(F24)), G24 - F24, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -3115,6 +3466,10 @@
         <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
+      <c r="M25" s="6">
+        <f>IF(AND(ISNUMBER(G25), ISNUMBER(F25)), G25 - F25, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -3142,6 +3497,10 @@
         <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
+      <c r="M26" s="6">
+        <f>IF(AND(ISNUMBER(G26), ISNUMBER(F26)), G26 - F26, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -3169,6 +3528,10 @@
         <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
+      <c r="M27" s="6">
+        <f>IF(AND(ISNUMBER(G27), ISNUMBER(F27)), G27 - F27, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -3196,6 +3559,10 @@
         <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
+      <c r="M28" s="6">
+        <f>IF(AND(ISNUMBER(G28), ISNUMBER(F28)), G28 - F28, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -3223,6 +3590,10 @@
         <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
+      <c r="M29" s="6">
+        <f>IF(AND(ISNUMBER(G29), ISNUMBER(F29)), G29 - F29, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -3250,6 +3621,10 @@
       </c>
       <c r="L30" s="6">
         <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="6">
+        <f>IF(AND(ISNUMBER(G30), ISNUMBER(F30)), G30 - F30, "")</f>
         <v/>
       </c>
     </row>
@@ -3279,6 +3654,10 @@
         <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
+      <c r="M31" s="6">
+        <f>IF(AND(ISNUMBER(G31), ISNUMBER(F31)), G31 - F31, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -3306,6 +3685,10 @@
         <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
+      <c r="M32" s="6">
+        <f>IF(AND(ISNUMBER(G32), ISNUMBER(F32)), G32 - F32, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -3333,6 +3716,10 @@
         <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
+      <c r="M33" s="6">
+        <f>IF(AND(ISNUMBER(G33), ISNUMBER(F33)), G33 - F33, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -3360,6 +3747,10 @@
       </c>
       <c r="L34" s="6">
         <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="6">
+        <f>IF(AND(ISNUMBER(G34), ISNUMBER(F34)), G34 - F34, "")</f>
         <v/>
       </c>
     </row>
@@ -3389,6 +3780,10 @@
         <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
+      <c r="M35" s="6">
+        <f>IF(AND(ISNUMBER(G35), ISNUMBER(F35)), G35 - F35, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -3416,6 +3811,10 @@
       </c>
       <c r="L36" s="6">
         <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
+        <v/>
+      </c>
+      <c r="M36" s="6">
+        <f>IF(AND(ISNUMBER(G36), ISNUMBER(F36)), G36 - F36, "")</f>
         <v/>
       </c>
     </row>
@@ -3445,6 +3844,10 @@
         <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
+      <c r="M37" s="6">
+        <f>IF(AND(ISNUMBER(G37), ISNUMBER(F37)), G37 - F37, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -3474,6 +3877,10 @@
         <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
+      <c r="M38" s="6">
+        <f>IF(AND(ISNUMBER(G38), ISNUMBER(F38)), G38 - F38, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -3503,6 +3910,10 @@
         <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
+      <c r="M39" s="6">
+        <f>IF(AND(ISNUMBER(G39), ISNUMBER(F39)), G39 - F39, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3532,6 +3943,10 @@
         <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
+      <c r="M40" s="6">
+        <f>IF(AND(ISNUMBER(G40), ISNUMBER(F40)), G40 - F40, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3559,6 +3974,10 @@
       </c>
       <c r="L41" s="6">
         <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
+        <v/>
+      </c>
+      <c r="M41" s="6">
+        <f>IF(AND(ISNUMBER(G41), ISNUMBER(F41)), G41 - F41, "")</f>
         <v/>
       </c>
     </row>
@@ -3588,6 +4007,10 @@
         <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
+      <c r="M42" s="6">
+        <f>IF(AND(ISNUMBER(G42), ISNUMBER(F42)), G42 - F42, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -3615,6 +4038,10 @@
         <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
+      <c r="M43" s="6">
+        <f>IF(AND(ISNUMBER(G43), ISNUMBER(F43)), G43 - F43, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -3642,6 +4069,10 @@
       </c>
       <c r="L44" s="6">
         <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
+        <v/>
+      </c>
+      <c r="M44" s="6">
+        <f>IF(AND(ISNUMBER(G44), ISNUMBER(F44)), G44 - F44, "")</f>
         <v/>
       </c>
     </row>
@@ -3671,6 +4102,10 @@
         <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
+      <c r="M45" s="6">
+        <f>IF(AND(ISNUMBER(G45), ISNUMBER(F45)), G45 - F45, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -3698,6 +4133,10 @@
         <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
+      <c r="M46" s="6">
+        <f>IF(AND(ISNUMBER(G46), ISNUMBER(F46)), G46 - F46, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -3725,6 +4164,10 @@
         <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
+      <c r="M47" s="6">
+        <f>IF(AND(ISNUMBER(G47), ISNUMBER(F47)), G47 - F47, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -3754,6 +4197,10 @@
         <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
+      <c r="M48" s="6">
+        <f>IF(AND(ISNUMBER(G48), ISNUMBER(F48)), G48 - F48, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -3781,6 +4228,10 @@
       </c>
       <c r="L49" s="6">
         <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
+        <v/>
+      </c>
+      <c r="M49" s="6">
+        <f>IF(AND(ISNUMBER(G49), ISNUMBER(F49)), G49 - F49, "")</f>
         <v/>
       </c>
     </row>
@@ -3810,6 +4261,10 @@
         <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
+      <c r="M50" s="6">
+        <f>IF(AND(ISNUMBER(G50), ISNUMBER(F50)), G50 - F50, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -3837,6 +4292,10 @@
         <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
+      <c r="M51" s="6">
+        <f>IF(AND(ISNUMBER(G51), ISNUMBER(F51)), G51 - F51, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -3864,6 +4323,10 @@
         <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
+      <c r="M52" s="6">
+        <f>IF(AND(ISNUMBER(G52), ISNUMBER(F52)), G52 - F52, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -3891,6 +4354,10 @@
       </c>
       <c r="L53" s="6">
         <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="6">
+        <f>IF(AND(ISNUMBER(G53), ISNUMBER(F53)), G53 - F53, "")</f>
         <v/>
       </c>
     </row>
@@ -3920,6 +4387,10 @@
         <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
+      <c r="M54" s="6">
+        <f>IF(AND(ISNUMBER(G54), ISNUMBER(F54)), G54 - F54, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -3947,6 +4418,10 @@
         <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
+      <c r="M55" s="6">
+        <f>IF(AND(ISNUMBER(G55), ISNUMBER(F55)), G55 - F55, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -3976,6 +4451,10 @@
         <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
+      <c r="M56" s="6">
+        <f>IF(AND(ISNUMBER(G56), ISNUMBER(F56)), G56 - F56, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -4003,6 +4482,10 @@
       </c>
       <c r="L57" s="6">
         <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="6">
+        <f>IF(AND(ISNUMBER(G57), ISNUMBER(F57)), G57 - F57, "")</f>
         <v/>
       </c>
     </row>
@@ -4032,6 +4515,10 @@
         <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
+      <c r="M58" s="6">
+        <f>IF(AND(ISNUMBER(G58), ISNUMBER(F58)), G58 - F58, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -4059,6 +4546,10 @@
         <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
+      <c r="M59" s="6">
+        <f>IF(AND(ISNUMBER(G59), ISNUMBER(F59)), G59 - F59, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -4086,6 +4577,10 @@
         <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
+      <c r="M60" s="6">
+        <f>IF(AND(ISNUMBER(G60), ISNUMBER(F60)), G60 - F60, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -4113,6 +4608,10 @@
         <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
+      <c r="M61" s="6">
+        <f>IF(AND(ISNUMBER(G61), ISNUMBER(F61)), G61 - F61, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -4140,6 +4639,10 @@
         <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
+      <c r="M62" s="6">
+        <f>IF(AND(ISNUMBER(G62), ISNUMBER(F62)), G62 - F62, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -4167,6 +4670,10 @@
         <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
+      <c r="M63" s="6">
+        <f>IF(AND(ISNUMBER(G63), ISNUMBER(F63)), G63 - F63, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -4194,6 +4701,10 @@
       </c>
       <c r="L64" s="6">
         <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
+        <v/>
+      </c>
+      <c r="M64" s="6">
+        <f>IF(AND(ISNUMBER(G64), ISNUMBER(F64)), G64 - F64, "")</f>
         <v/>
       </c>
     </row>
@@ -4223,6 +4734,10 @@
         <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
+      <c r="M65" s="6">
+        <f>IF(AND(ISNUMBER(G65), ISNUMBER(F65)), G65 - F65, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -4250,6 +4765,10 @@
       </c>
       <c r="L66" s="6">
         <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
+        <v/>
+      </c>
+      <c r="M66" s="6">
+        <f>IF(AND(ISNUMBER(G66), ISNUMBER(F66)), G66 - F66, "")</f>
         <v/>
       </c>
     </row>
@@ -4279,6 +4798,10 @@
         <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
+      <c r="M67" s="6">
+        <f>IF(AND(ISNUMBER(G67), ISNUMBER(F67)), G67 - F67, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -4308,6 +4831,10 @@
         <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
+      <c r="M68" s="6">
+        <f>IF(AND(ISNUMBER(G68), ISNUMBER(F68)), G68 - F68, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -4335,6 +4862,10 @@
       </c>
       <c r="L69" s="6">
         <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
+        <v/>
+      </c>
+      <c r="M69" s="6">
+        <f>IF(AND(ISNUMBER(G69), ISNUMBER(F69)), G69 - F69, "")</f>
         <v/>
       </c>
     </row>
@@ -4364,6 +4895,10 @@
         <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
+      <c r="M70" s="6">
+        <f>IF(AND(ISNUMBER(G70), ISNUMBER(F70)), G70 - F70, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -4393,6 +4928,10 @@
         <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
+      <c r="M71" s="6">
+        <f>IF(AND(ISNUMBER(G71), ISNUMBER(F71)), G71 - F71, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -4422,6 +4961,10 @@
         <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
+      <c r="M72" s="6">
+        <f>IF(AND(ISNUMBER(G72), ISNUMBER(F72)), G72 - F72, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -4451,6 +4994,10 @@
         <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
+      <c r="M73" s="6">
+        <f>IF(AND(ISNUMBER(G73), ISNUMBER(F73)), G73 - F73, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -4480,6 +5027,10 @@
         <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
+      <c r="M74" s="6">
+        <f>IF(AND(ISNUMBER(G74), ISNUMBER(F74)), G74 - F74, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -4509,6 +5060,10 @@
         <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
+      <c r="M75" s="6">
+        <f>IF(AND(ISNUMBER(G75), ISNUMBER(F75)), G75 - F75, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -4538,6 +5093,10 @@
         <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
+      <c r="M76" s="6">
+        <f>IF(AND(ISNUMBER(G76), ISNUMBER(F76)), G76 - F76, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -4565,6 +5124,10 @@
       </c>
       <c r="L77" s="6">
         <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
+        <v/>
+      </c>
+      <c r="M77" s="6">
+        <f>IF(AND(ISNUMBER(G77), ISNUMBER(F77)), G77 - F77, "")</f>
         <v/>
       </c>
     </row>
@@ -4594,6 +5157,10 @@
         <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
+      <c r="M78" s="6">
+        <f>IF(AND(ISNUMBER(G78), ISNUMBER(F78)), G78 - F78, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -4619,6 +5186,10 @@
       </c>
       <c r="L79" s="6">
         <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
+        <v/>
+      </c>
+      <c r="M79" s="6">
+        <f>IF(AND(ISNUMBER(G79), ISNUMBER(F79)), G79 - F79, "")</f>
         <v/>
       </c>
     </row>
@@ -4642,7 +5213,22 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L79">
-    <cfRule type="cellIs" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="00C00000"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M79">
+    <cfRule type="cellIs" priority="4" operator="equal" stopIfTrue="1">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1000">
@@ -4657,7 +5243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:I79">
-    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>OR(LEN(TRIM($I7))&gt;0,LEN(TRIM($H7))&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4671,7 +5257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -4691,6 +5277,7 @@
     <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
     <col width="9.1" customWidth="1" min="11" max="11"/>
     <col width="9.1" customWidth="1" min="12" max="12"/>
+    <col width="9.1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4816,6 +5403,11 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Diff D</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Diff H</t>
         </is>
       </c>
     </row>
@@ -4847,6 +5439,10 @@
         <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
+      <c r="M7" s="6">
+        <f>IF(AND(ISNUMBER(G7), ISNUMBER(F7)), G7 - F7, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -4876,6 +5472,10 @@
         <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
+      <c r="M8" s="6">
+        <f>IF(AND(ISNUMBER(G8), ISNUMBER(F8)), G8 - F8, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -4905,6 +5505,10 @@
         <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
+      <c r="M9" s="6">
+        <f>IF(AND(ISNUMBER(G9), ISNUMBER(F9)), G9 - F9, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -4932,6 +5536,10 @@
       </c>
       <c r="L10" s="6">
         <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
+        <v/>
+      </c>
+      <c r="M10" s="6">
+        <f>IF(AND(ISNUMBER(G10), ISNUMBER(F10)), G10 - F10, "")</f>
         <v/>
       </c>
     </row>
@@ -4961,6 +5569,10 @@
         <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
+      <c r="M11" s="6">
+        <f>IF(AND(ISNUMBER(G11), ISNUMBER(F11)), G11 - F11, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -4990,6 +5602,10 @@
         <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
+      <c r="M12" s="6">
+        <f>IF(AND(ISNUMBER(G12), ISNUMBER(F12)), G12 - F12, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -5017,6 +5633,10 @@
       </c>
       <c r="L13" s="6">
         <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
+        <v/>
+      </c>
+      <c r="M13" s="6">
+        <f>IF(AND(ISNUMBER(G13), ISNUMBER(F13)), G13 - F13, "")</f>
         <v/>
       </c>
     </row>
@@ -5046,6 +5666,10 @@
         <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
+      <c r="M14" s="6">
+        <f>IF(AND(ISNUMBER(G14), ISNUMBER(F14)), G14 - F14, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -5073,6 +5697,10 @@
       </c>
       <c r="L15" s="6">
         <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="6">
+        <f>IF(AND(ISNUMBER(G15), ISNUMBER(F15)), G15 - F15, "")</f>
         <v/>
       </c>
     </row>
@@ -5102,6 +5730,10 @@
         <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
+      <c r="M16" s="6">
+        <f>IF(AND(ISNUMBER(G16), ISNUMBER(F16)), G16 - F16, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -5131,6 +5763,10 @@
         <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
+      <c r="M17" s="6">
+        <f>IF(AND(ISNUMBER(G17), ISNUMBER(F17)), G17 - F17, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -5160,6 +5796,10 @@
         <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
+      <c r="M18" s="6">
+        <f>IF(AND(ISNUMBER(G18), ISNUMBER(F18)), G18 - F18, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -5187,6 +5827,10 @@
       </c>
       <c r="L19" s="6">
         <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
+        <v/>
+      </c>
+      <c r="M19" s="6">
+        <f>IF(AND(ISNUMBER(G19), ISNUMBER(F19)), G19 - F19, "")</f>
         <v/>
       </c>
     </row>
@@ -5216,6 +5860,10 @@
         <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
+      <c r="M20" s="6">
+        <f>IF(AND(ISNUMBER(G20), ISNUMBER(F20)), G20 - F20, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -5243,6 +5891,10 @@
       </c>
       <c r="L21" s="6">
         <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
+        <v/>
+      </c>
+      <c r="M21" s="6">
+        <f>IF(AND(ISNUMBER(G21), ISNUMBER(F21)), G21 - F21, "")</f>
         <v/>
       </c>
     </row>
@@ -5272,6 +5924,10 @@
         <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
+      <c r="M22" s="6">
+        <f>IF(AND(ISNUMBER(G22), ISNUMBER(F22)), G22 - F22, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -5301,6 +5957,10 @@
         <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
+      <c r="M23" s="6">
+        <f>IF(AND(ISNUMBER(G23), ISNUMBER(F23)), G23 - F23, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -5330,6 +5990,10 @@
         <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
+      <c r="M24" s="6">
+        <f>IF(AND(ISNUMBER(G24), ISNUMBER(F24)), G24 - F24, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -5357,6 +6021,10 @@
       </c>
       <c r="L25" s="6">
         <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
+        <v/>
+      </c>
+      <c r="M25" s="6">
+        <f>IF(AND(ISNUMBER(G25), ISNUMBER(F25)), G25 - F25, "")</f>
         <v/>
       </c>
     </row>
@@ -5386,6 +6054,10 @@
         <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
+      <c r="M26" s="6">
+        <f>IF(AND(ISNUMBER(G26), ISNUMBER(F26)), G26 - F26, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -5413,6 +6085,10 @@
       </c>
       <c r="L27" s="6">
         <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="6">
+        <f>IF(AND(ISNUMBER(G27), ISNUMBER(F27)), G27 - F27, "")</f>
         <v/>
       </c>
     </row>
@@ -5442,6 +6118,10 @@
         <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
+      <c r="M28" s="6">
+        <f>IF(AND(ISNUMBER(G28), ISNUMBER(F28)), G28 - F28, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -5469,6 +6149,10 @@
         <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
+      <c r="M29" s="6">
+        <f>IF(AND(ISNUMBER(G29), ISNUMBER(F29)), G29 - F29, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -5496,6 +6180,10 @@
         <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
+      <c r="M30" s="6">
+        <f>IF(AND(ISNUMBER(G30), ISNUMBER(F30)), G30 - F30, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -5523,6 +6211,10 @@
         <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
+      <c r="M31" s="6">
+        <f>IF(AND(ISNUMBER(G31), ISNUMBER(F31)), G31 - F31, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -5550,6 +6242,10 @@
       </c>
       <c r="L32" s="6">
         <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="6">
+        <f>IF(AND(ISNUMBER(G32), ISNUMBER(F32)), G32 - F32, "")</f>
         <v/>
       </c>
     </row>
@@ -5579,6 +6275,10 @@
         <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
+      <c r="M33" s="6">
+        <f>IF(AND(ISNUMBER(G33), ISNUMBER(F33)), G33 - F33, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -5606,6 +6306,10 @@
         <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
+      <c r="M34" s="6">
+        <f>IF(AND(ISNUMBER(G34), ISNUMBER(F34)), G34 - F34, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -5635,6 +6339,10 @@
         <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
+      <c r="M35" s="6">
+        <f>IF(AND(ISNUMBER(G35), ISNUMBER(F35)), G35 - F35, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -5664,6 +6372,10 @@
         <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
+      <c r="M36" s="6">
+        <f>IF(AND(ISNUMBER(G36), ISNUMBER(F36)), G36 - F36, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -5693,6 +6405,10 @@
         <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
+      <c r="M37" s="6">
+        <f>IF(AND(ISNUMBER(G37), ISNUMBER(F37)), G37 - F37, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -5722,6 +6438,10 @@
         <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
+      <c r="M38" s="6">
+        <f>IF(AND(ISNUMBER(G38), ISNUMBER(F38)), G38 - F38, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -5751,6 +6471,10 @@
         <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
+      <c r="M39" s="6">
+        <f>IF(AND(ISNUMBER(G39), ISNUMBER(F39)), G39 - F39, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -5780,6 +6504,10 @@
         <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
+      <c r="M40" s="6">
+        <f>IF(AND(ISNUMBER(G40), ISNUMBER(F40)), G40 - F40, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -5809,6 +6537,10 @@
         <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
+      <c r="M41" s="6">
+        <f>IF(AND(ISNUMBER(G41), ISNUMBER(F41)), G41 - F41, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -5836,6 +6568,10 @@
       </c>
       <c r="L42" s="6">
         <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="6">
+        <f>IF(AND(ISNUMBER(G42), ISNUMBER(F42)), G42 - F42, "")</f>
         <v/>
       </c>
     </row>
@@ -5865,6 +6601,10 @@
         <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
+      <c r="M43" s="6">
+        <f>IF(AND(ISNUMBER(G43), ISNUMBER(F43)), G43 - F43, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -5894,6 +6634,10 @@
         <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
+      <c r="M44" s="6">
+        <f>IF(AND(ISNUMBER(G44), ISNUMBER(F44)), G44 - F44, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -5923,6 +6667,10 @@
         <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
+      <c r="M45" s="6">
+        <f>IF(AND(ISNUMBER(G45), ISNUMBER(F45)), G45 - F45, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -5950,6 +6698,10 @@
       </c>
       <c r="L46" s="6">
         <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
+        <v/>
+      </c>
+      <c r="M46" s="6">
+        <f>IF(AND(ISNUMBER(G46), ISNUMBER(F46)), G46 - F46, "")</f>
         <v/>
       </c>
     </row>
@@ -5979,6 +6731,10 @@
         <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
+      <c r="M47" s="6">
+        <f>IF(AND(ISNUMBER(G47), ISNUMBER(F47)), G47 - F47, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -6008,6 +6764,10 @@
         <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
+      <c r="M48" s="6">
+        <f>IF(AND(ISNUMBER(G48), ISNUMBER(F48)), G48 - F48, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -6037,6 +6797,10 @@
         <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
+      <c r="M49" s="6">
+        <f>IF(AND(ISNUMBER(G49), ISNUMBER(F49)), G49 - F49, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -6066,6 +6830,10 @@
         <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
+      <c r="M50" s="6">
+        <f>IF(AND(ISNUMBER(G50), ISNUMBER(F50)), G50 - F50, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -6095,6 +6863,10 @@
         <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
+      <c r="M51" s="6">
+        <f>IF(AND(ISNUMBER(G51), ISNUMBER(F51)), G51 - F51, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -6122,6 +6894,10 @@
       </c>
       <c r="L52" s="6">
         <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="6">
+        <f>IF(AND(ISNUMBER(G52), ISNUMBER(F52)), G52 - F52, "")</f>
         <v/>
       </c>
     </row>
@@ -6151,6 +6927,10 @@
         <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
+      <c r="M53" s="6">
+        <f>IF(AND(ISNUMBER(G53), ISNUMBER(F53)), G53 - F53, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -6178,6 +6958,10 @@
       </c>
       <c r="L54" s="6">
         <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="6">
+        <f>IF(AND(ISNUMBER(G54), ISNUMBER(F54)), G54 - F54, "")</f>
         <v/>
       </c>
     </row>
@@ -6207,6 +6991,10 @@
         <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
+      <c r="M55" s="6">
+        <f>IF(AND(ISNUMBER(G55), ISNUMBER(F55)), G55 - F55, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -6234,6 +7022,10 @@
         <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
+      <c r="M56" s="6">
+        <f>IF(AND(ISNUMBER(G56), ISNUMBER(F56)), G56 - F56, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -6261,6 +7053,10 @@
         <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
+      <c r="M57" s="6">
+        <f>IF(AND(ISNUMBER(G57), ISNUMBER(F57)), G57 - F57, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -6288,6 +7084,10 @@
       </c>
       <c r="L58" s="6">
         <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="6">
+        <f>IF(AND(ISNUMBER(G58), ISNUMBER(F58)), G58 - F58, "")</f>
         <v/>
       </c>
     </row>
@@ -6317,6 +7117,10 @@
         <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
+      <c r="M59" s="6">
+        <f>IF(AND(ISNUMBER(G59), ISNUMBER(F59)), G59 - F59, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -6346,6 +7150,10 @@
         <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
+      <c r="M60" s="6">
+        <f>IF(AND(ISNUMBER(G60), ISNUMBER(F60)), G60 - F60, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -6375,6 +7183,10 @@
         <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
+      <c r="M61" s="6">
+        <f>IF(AND(ISNUMBER(G61), ISNUMBER(F61)), G61 - F61, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -6402,6 +7214,10 @@
       </c>
       <c r="L62" s="6">
         <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="6">
+        <f>IF(AND(ISNUMBER(G62), ISNUMBER(F62)), G62 - F62, "")</f>
         <v/>
       </c>
     </row>
@@ -6431,6 +7247,10 @@
         <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
+      <c r="M63" s="6">
+        <f>IF(AND(ISNUMBER(G63), ISNUMBER(F63)), G63 - F63, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -6458,6 +7278,10 @@
         <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
+      <c r="M64" s="6">
+        <f>IF(AND(ISNUMBER(G64), ISNUMBER(F64)), G64 - F64, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -6485,6 +7309,10 @@
         <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
+      <c r="M65" s="6">
+        <f>IF(AND(ISNUMBER(G65), ISNUMBER(F65)), G65 - F65, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -6514,6 +7342,10 @@
         <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
+      <c r="M66" s="6">
+        <f>IF(AND(ISNUMBER(G66), ISNUMBER(F66)), G66 - F66, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -6541,6 +7373,10 @@
       </c>
       <c r="L67" s="6">
         <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="6">
+        <f>IF(AND(ISNUMBER(G67), ISNUMBER(F67)), G67 - F67, "")</f>
         <v/>
       </c>
     </row>
@@ -6570,6 +7406,10 @@
         <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
+      <c r="M68" s="6">
+        <f>IF(AND(ISNUMBER(G68), ISNUMBER(F68)), G68 - F68, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -6597,6 +7437,10 @@
       </c>
       <c r="L69" s="6">
         <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
+        <v/>
+      </c>
+      <c r="M69" s="6">
+        <f>IF(AND(ISNUMBER(G69), ISNUMBER(F69)), G69 - F69, "")</f>
         <v/>
       </c>
     </row>
@@ -6626,6 +7470,10 @@
         <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
+      <c r="M70" s="6">
+        <f>IF(AND(ISNUMBER(G70), ISNUMBER(F70)), G70 - F70, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -6655,6 +7503,10 @@
         <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
+      <c r="M71" s="6">
+        <f>IF(AND(ISNUMBER(G71), ISNUMBER(F71)), G71 - F71, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -6684,6 +7536,10 @@
         <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
+      <c r="M72" s="6">
+        <f>IF(AND(ISNUMBER(G72), ISNUMBER(F72)), G72 - F72, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -6713,6 +7569,10 @@
         <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
+      <c r="M73" s="6">
+        <f>IF(AND(ISNUMBER(G73), ISNUMBER(F73)), G73 - F73, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -6742,6 +7602,10 @@
         <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
+      <c r="M74" s="6">
+        <f>IF(AND(ISNUMBER(G74), ISNUMBER(F74)), G74 - F74, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -6769,6 +7633,10 @@
       </c>
       <c r="L75" s="6">
         <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
+        <v/>
+      </c>
+      <c r="M75" s="6">
+        <f>IF(AND(ISNUMBER(G75), ISNUMBER(F75)), G75 - F75, "")</f>
         <v/>
       </c>
     </row>
@@ -6798,6 +7666,10 @@
         <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
+      <c r="M76" s="6">
+        <f>IF(AND(ISNUMBER(G76), ISNUMBER(F76)), G76 - F76, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -6825,6 +7697,10 @@
       </c>
       <c r="L77" s="6">
         <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
+        <v/>
+      </c>
+      <c r="M77" s="6">
+        <f>IF(AND(ISNUMBER(G77), ISNUMBER(F77)), G77 - F77, "")</f>
         <v/>
       </c>
     </row>
@@ -6854,6 +7730,10 @@
         <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
+      <c r="M78" s="6">
+        <f>IF(AND(ISNUMBER(G78), ISNUMBER(F78)), G78 - F78, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -6881,6 +7761,10 @@
         <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
+      <c r="M79" s="6">
+        <f>IF(AND(ISNUMBER(G79), ISNUMBER(F79)), G79 - F79, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -6910,6 +7794,10 @@
         <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
+      <c r="M80" s="6">
+        <f>IF(AND(ISNUMBER(G80), ISNUMBER(F80)), G80 - F80, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -6937,6 +7825,10 @@
       </c>
       <c r="L81" s="6">
         <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
+        <v/>
+      </c>
+      <c r="M81" s="6">
+        <f>IF(AND(ISNUMBER(G81), ISNUMBER(F81)), G81 - F81, "")</f>
         <v/>
       </c>
     </row>
@@ -6966,6 +7858,10 @@
         <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
+      <c r="M82" s="6">
+        <f>IF(AND(ISNUMBER(G82), ISNUMBER(F82)), G82 - F82, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -6993,6 +7889,10 @@
         <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
+      <c r="M83" s="6">
+        <f>IF(AND(ISNUMBER(G83), ISNUMBER(F83)), G83 - F83, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -7022,6 +7922,10 @@
         <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
+      <c r="M84" s="6">
+        <f>IF(AND(ISNUMBER(G84), ISNUMBER(F84)), G84 - F84, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -7051,6 +7955,10 @@
         <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
+      <c r="M85" s="6">
+        <f>IF(AND(ISNUMBER(G85), ISNUMBER(F85)), G85 - F85, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -7080,6 +7988,10 @@
         <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
+      <c r="M86" s="6">
+        <f>IF(AND(ISNUMBER(G86), ISNUMBER(F86)), G86 - F86, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -7109,6 +8021,10 @@
         <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
+      <c r="M87" s="6">
+        <f>IF(AND(ISNUMBER(G87), ISNUMBER(F87)), G87 - F87, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -7138,6 +8054,10 @@
         <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
+      <c r="M88" s="6">
+        <f>IF(AND(ISNUMBER(G88), ISNUMBER(F88)), G88 - F88, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -7167,6 +8087,10 @@
         <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
+      <c r="M89" s="6">
+        <f>IF(AND(ISNUMBER(G89), ISNUMBER(F89)), G89 - F89, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -7194,6 +8118,10 @@
       </c>
       <c r="L90" s="6">
         <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
+        <v/>
+      </c>
+      <c r="M90" s="6">
+        <f>IF(AND(ISNUMBER(G90), ISNUMBER(F90)), G90 - F90, "")</f>
         <v/>
       </c>
     </row>
@@ -7217,7 +8145,22 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L90">
-    <cfRule type="cellIs" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="00C00000"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M90">
+    <cfRule type="cellIs" priority="6" operator="equal" stopIfTrue="1">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1000">
@@ -7232,7 +8175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:I90">
-    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>OR(LEN(TRIM($I7))&gt;0,LEN(TRIM($H7))&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7246,7 +8189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -7266,6 +8209,7 @@
     <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
     <col width="9.1" customWidth="1" min="11" max="11"/>
     <col width="9.1" customWidth="1" min="12" max="12"/>
+    <col width="9.1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7391,6 +8335,11 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Diff D</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Diff H</t>
         </is>
       </c>
     </row>
@@ -7422,6 +8371,10 @@
         <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
+      <c r="M7" s="6">
+        <f>IF(AND(ISNUMBER(G7), ISNUMBER(F7)), G7 - F7, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -7449,6 +8402,10 @@
       </c>
       <c r="L8" s="6">
         <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
+        <v/>
+      </c>
+      <c r="M8" s="6">
+        <f>IF(AND(ISNUMBER(G8), ISNUMBER(F8)), G8 - F8, "")</f>
         <v/>
       </c>
     </row>
@@ -7478,6 +8435,10 @@
         <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
+      <c r="M9" s="6">
+        <f>IF(AND(ISNUMBER(G9), ISNUMBER(F9)), G9 - F9, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -7505,6 +8466,10 @@
         <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
+      <c r="M10" s="6">
+        <f>IF(AND(ISNUMBER(G10), ISNUMBER(F10)), G10 - F10, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -7532,6 +8497,10 @@
         <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
+      <c r="M11" s="6">
+        <f>IF(AND(ISNUMBER(G11), ISNUMBER(F11)), G11 - F11, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -7559,6 +8528,10 @@
         <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
+      <c r="M12" s="6">
+        <f>IF(AND(ISNUMBER(G12), ISNUMBER(F12)), G12 - F12, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -7586,6 +8559,10 @@
       </c>
       <c r="L13" s="6">
         <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
+        <v/>
+      </c>
+      <c r="M13" s="6">
+        <f>IF(AND(ISNUMBER(G13), ISNUMBER(F13)), G13 - F13, "")</f>
         <v/>
       </c>
     </row>
@@ -7615,6 +8592,10 @@
         <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
+      <c r="M14" s="6">
+        <f>IF(AND(ISNUMBER(G14), ISNUMBER(F14)), G14 - F14, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -7642,6 +8623,10 @@
       </c>
       <c r="L15" s="6">
         <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="6">
+        <f>IF(AND(ISNUMBER(G15), ISNUMBER(F15)), G15 - F15, "")</f>
         <v/>
       </c>
     </row>
@@ -7671,6 +8656,10 @@
         <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
+      <c r="M16" s="6">
+        <f>IF(AND(ISNUMBER(G16), ISNUMBER(F16)), G16 - F16, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -7698,6 +8687,10 @@
         <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
+      <c r="M17" s="6">
+        <f>IF(AND(ISNUMBER(G17), ISNUMBER(F17)), G17 - F17, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -7725,6 +8718,10 @@
       </c>
       <c r="L18" s="6">
         <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="6">
+        <f>IF(AND(ISNUMBER(G18), ISNUMBER(F18)), G18 - F18, "")</f>
         <v/>
       </c>
     </row>
@@ -7754,6 +8751,10 @@
         <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
+      <c r="M19" s="6">
+        <f>IF(AND(ISNUMBER(G19), ISNUMBER(F19)), G19 - F19, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -7781,6 +8782,10 @@
         <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
+      <c r="M20" s="6">
+        <f>IF(AND(ISNUMBER(G20), ISNUMBER(F20)), G20 - F20, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -7808,6 +8813,10 @@
       </c>
       <c r="L21" s="6">
         <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
+        <v/>
+      </c>
+      <c r="M21" s="6">
+        <f>IF(AND(ISNUMBER(G21), ISNUMBER(F21)), G21 - F21, "")</f>
         <v/>
       </c>
     </row>
@@ -7837,6 +8846,10 @@
         <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
+      <c r="M22" s="6">
+        <f>IF(AND(ISNUMBER(G22), ISNUMBER(F22)), G22 - F22, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -7864,6 +8877,10 @@
         <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
+      <c r="M23" s="6">
+        <f>IF(AND(ISNUMBER(G23), ISNUMBER(F23)), G23 - F23, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -7891,6 +8908,10 @@
       </c>
       <c r="L24" s="6">
         <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
+        <v/>
+      </c>
+      <c r="M24" s="6">
+        <f>IF(AND(ISNUMBER(G24), ISNUMBER(F24)), G24 - F24, "")</f>
         <v/>
       </c>
     </row>
@@ -7920,6 +8941,10 @@
         <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
+      <c r="M25" s="6">
+        <f>IF(AND(ISNUMBER(G25), ISNUMBER(F25)), G25 - F25, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -7947,6 +8972,10 @@
         <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
+      <c r="M26" s="6">
+        <f>IF(AND(ISNUMBER(G26), ISNUMBER(F26)), G26 - F26, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -7974,6 +9003,10 @@
       </c>
       <c r="L27" s="6">
         <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
+        <v/>
+      </c>
+      <c r="M27" s="6">
+        <f>IF(AND(ISNUMBER(G27), ISNUMBER(F27)), G27 - F27, "")</f>
         <v/>
       </c>
     </row>
@@ -8003,6 +9036,10 @@
         <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
+      <c r="M28" s="6">
+        <f>IF(AND(ISNUMBER(G28), ISNUMBER(F28)), G28 - F28, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -8030,6 +9067,10 @@
         <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
+      <c r="M29" s="6">
+        <f>IF(AND(ISNUMBER(G29), ISNUMBER(F29)), G29 - F29, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -8059,6 +9100,10 @@
         <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
+      <c r="M30" s="6">
+        <f>IF(AND(ISNUMBER(G30), ISNUMBER(F30)), G30 - F30, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -8088,6 +9133,10 @@
         <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
+      <c r="M31" s="6">
+        <f>IF(AND(ISNUMBER(G31), ISNUMBER(F31)), G31 - F31, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -8117,6 +9166,10 @@
         <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
+      <c r="M32" s="6">
+        <f>IF(AND(ISNUMBER(G32), ISNUMBER(F32)), G32 - F32, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -8144,6 +9197,10 @@
       </c>
       <c r="L33" s="6">
         <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="6">
+        <f>IF(AND(ISNUMBER(G33), ISNUMBER(F33)), G33 - F33, "")</f>
         <v/>
       </c>
     </row>
@@ -8173,6 +9230,10 @@
         <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
+      <c r="M34" s="6">
+        <f>IF(AND(ISNUMBER(G34), ISNUMBER(F34)), G34 - F34, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -8202,6 +9263,10 @@
         <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
+      <c r="M35" s="6">
+        <f>IF(AND(ISNUMBER(G35), ISNUMBER(F35)), G35 - F35, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -8231,6 +9296,10 @@
         <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
+      <c r="M36" s="6">
+        <f>IF(AND(ISNUMBER(G36), ISNUMBER(F36)), G36 - F36, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -8258,6 +9327,10 @@
       </c>
       <c r="L37" s="6">
         <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
+        <v/>
+      </c>
+      <c r="M37" s="6">
+        <f>IF(AND(ISNUMBER(G37), ISNUMBER(F37)), G37 - F37, "")</f>
         <v/>
       </c>
     </row>
@@ -8287,6 +9360,10 @@
         <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
+      <c r="M38" s="6">
+        <f>IF(AND(ISNUMBER(G38), ISNUMBER(F38)), G38 - F38, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -8314,6 +9391,10 @@
         <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
+      <c r="M39" s="6">
+        <f>IF(AND(ISNUMBER(G39), ISNUMBER(F39)), G39 - F39, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -8341,6 +9422,10 @@
         <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
+      <c r="M40" s="6">
+        <f>IF(AND(ISNUMBER(G40), ISNUMBER(F40)), G40 - F40, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -8370,6 +9455,10 @@
         <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
+      <c r="M41" s="6">
+        <f>IF(AND(ISNUMBER(G41), ISNUMBER(F41)), G41 - F41, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -8397,6 +9486,10 @@
       </c>
       <c r="L42" s="6">
         <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="6">
+        <f>IF(AND(ISNUMBER(G42), ISNUMBER(F42)), G42 - F42, "")</f>
         <v/>
       </c>
     </row>
@@ -8426,6 +9519,10 @@
         <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
+      <c r="M43" s="6">
+        <f>IF(AND(ISNUMBER(G43), ISNUMBER(F43)), G43 - F43, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -8453,6 +9550,10 @@
         <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
+      <c r="M44" s="6">
+        <f>IF(AND(ISNUMBER(G44), ISNUMBER(F44)), G44 - F44, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -8482,6 +9583,10 @@
         <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
+      <c r="M45" s="6">
+        <f>IF(AND(ISNUMBER(G45), ISNUMBER(F45)), G45 - F45, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -8511,6 +9616,10 @@
         <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
+      <c r="M46" s="6">
+        <f>IF(AND(ISNUMBER(G46), ISNUMBER(F46)), G46 - F46, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -8538,6 +9647,10 @@
       </c>
       <c r="L47" s="6">
         <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="6">
+        <f>IF(AND(ISNUMBER(G47), ISNUMBER(F47)), G47 - F47, "")</f>
         <v/>
       </c>
     </row>
@@ -8567,6 +9680,10 @@
         <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
+      <c r="M48" s="6">
+        <f>IF(AND(ISNUMBER(G48), ISNUMBER(F48)), G48 - F48, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -8594,6 +9711,10 @@
       </c>
       <c r="L49" s="6">
         <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
+        <v/>
+      </c>
+      <c r="M49" s="6">
+        <f>IF(AND(ISNUMBER(G49), ISNUMBER(F49)), G49 - F49, "")</f>
         <v/>
       </c>
     </row>
@@ -8623,6 +9744,10 @@
         <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
+      <c r="M50" s="6">
+        <f>IF(AND(ISNUMBER(G50), ISNUMBER(F50)), G50 - F50, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -8650,6 +9775,10 @@
         <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
+      <c r="M51" s="6">
+        <f>IF(AND(ISNUMBER(G51), ISNUMBER(F51)), G51 - F51, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -8677,6 +9806,10 @@
       </c>
       <c r="L52" s="6">
         <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="6">
+        <f>IF(AND(ISNUMBER(G52), ISNUMBER(F52)), G52 - F52, "")</f>
         <v/>
       </c>
     </row>
@@ -8706,6 +9839,10 @@
         <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
+      <c r="M53" s="6">
+        <f>IF(AND(ISNUMBER(G53), ISNUMBER(F53)), G53 - F53, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -8733,6 +9870,10 @@
         <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
+      <c r="M54" s="6">
+        <f>IF(AND(ISNUMBER(G54), ISNUMBER(F54)), G54 - F54, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -8760,6 +9901,10 @@
         <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
+      <c r="M55" s="6">
+        <f>IF(AND(ISNUMBER(G55), ISNUMBER(F55)), G55 - F55, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -8787,6 +9932,10 @@
         <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
+      <c r="M56" s="6">
+        <f>IF(AND(ISNUMBER(G56), ISNUMBER(F56)), G56 - F56, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -8814,6 +9963,10 @@
         <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
+      <c r="M57" s="6">
+        <f>IF(AND(ISNUMBER(G57), ISNUMBER(F57)), G57 - F57, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -8843,6 +9996,10 @@
         <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
+      <c r="M58" s="6">
+        <f>IF(AND(ISNUMBER(G58), ISNUMBER(F58)), G58 - F58, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -8870,6 +10027,10 @@
       </c>
       <c r="L59" s="6">
         <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="6">
+        <f>IF(AND(ISNUMBER(G59), ISNUMBER(F59)), G59 - F59, "")</f>
         <v/>
       </c>
     </row>
@@ -8899,6 +10060,10 @@
         <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
+      <c r="M60" s="6">
+        <f>IF(AND(ISNUMBER(G60), ISNUMBER(F60)), G60 - F60, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -8926,6 +10091,10 @@
         <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
+      <c r="M61" s="6">
+        <f>IF(AND(ISNUMBER(G61), ISNUMBER(F61)), G61 - F61, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -8953,6 +10122,10 @@
         <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
+      <c r="M62" s="6">
+        <f>IF(AND(ISNUMBER(G62), ISNUMBER(F62)), G62 - F62, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -8980,6 +10153,10 @@
         <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
+      <c r="M63" s="6">
+        <f>IF(AND(ISNUMBER(G63), ISNUMBER(F63)), G63 - F63, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -9007,6 +10184,10 @@
         <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
+      <c r="M64" s="6">
+        <f>IF(AND(ISNUMBER(G64), ISNUMBER(F64)), G64 - F64, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -9034,6 +10215,10 @@
         <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
+      <c r="M65" s="6">
+        <f>IF(AND(ISNUMBER(G65), ISNUMBER(F65)), G65 - F65, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -9061,6 +10246,10 @@
         <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
+      <c r="M66" s="6">
+        <f>IF(AND(ISNUMBER(G66), ISNUMBER(F66)), G66 - F66, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -9088,6 +10277,10 @@
       </c>
       <c r="L67" s="6">
         <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="6">
+        <f>IF(AND(ISNUMBER(G67), ISNUMBER(F67)), G67 - F67, "")</f>
         <v/>
       </c>
     </row>
@@ -9117,6 +10310,10 @@
         <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
+      <c r="M68" s="6">
+        <f>IF(AND(ISNUMBER(G68), ISNUMBER(F68)), G68 - F68, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -9144,6 +10341,10 @@
         <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
+      <c r="M69" s="6">
+        <f>IF(AND(ISNUMBER(G69), ISNUMBER(F69)), G69 - F69, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -9171,6 +10372,10 @@
         <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
+      <c r="M70" s="6">
+        <f>IF(AND(ISNUMBER(G70), ISNUMBER(F70)), G70 - F70, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -9198,6 +10403,10 @@
         <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
+      <c r="M71" s="6">
+        <f>IF(AND(ISNUMBER(G71), ISNUMBER(F71)), G71 - F71, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -9225,6 +10434,10 @@
         <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
+      <c r="M72" s="6">
+        <f>IF(AND(ISNUMBER(G72), ISNUMBER(F72)), G72 - F72, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -9252,6 +10465,10 @@
       </c>
       <c r="L73" s="6">
         <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
+        <v/>
+      </c>
+      <c r="M73" s="6">
+        <f>IF(AND(ISNUMBER(G73), ISNUMBER(F73)), G73 - F73, "")</f>
         <v/>
       </c>
     </row>
@@ -9281,6 +10498,10 @@
         <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
+      <c r="M74" s="6">
+        <f>IF(AND(ISNUMBER(G74), ISNUMBER(F74)), G74 - F74, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -9308,6 +10529,10 @@
         <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
+      <c r="M75" s="6">
+        <f>IF(AND(ISNUMBER(G75), ISNUMBER(F75)), G75 - F75, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -9335,6 +10560,10 @@
         <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
+      <c r="M76" s="6">
+        <f>IF(AND(ISNUMBER(G76), ISNUMBER(F76)), G76 - F76, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -9362,6 +10591,10 @@
         <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
+      <c r="M77" s="6">
+        <f>IF(AND(ISNUMBER(G77), ISNUMBER(F77)), G77 - F77, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -9389,6 +10622,10 @@
       </c>
       <c r="L78" s="6">
         <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
+        <v/>
+      </c>
+      <c r="M78" s="6">
+        <f>IF(AND(ISNUMBER(G78), ISNUMBER(F78)), G78 - F78, "")</f>
         <v/>
       </c>
     </row>
@@ -9418,6 +10655,10 @@
         <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
+      <c r="M79" s="6">
+        <f>IF(AND(ISNUMBER(G79), ISNUMBER(F79)), G79 - F79, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -9445,6 +10686,10 @@
         <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
+      <c r="M80" s="6">
+        <f>IF(AND(ISNUMBER(G80), ISNUMBER(F80)), G80 - F80, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -9472,6 +10717,10 @@
         <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
+      <c r="M81" s="6">
+        <f>IF(AND(ISNUMBER(G81), ISNUMBER(F81)), G81 - F81, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -9499,6 +10748,10 @@
         <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
+      <c r="M82" s="6">
+        <f>IF(AND(ISNUMBER(G82), ISNUMBER(F82)), G82 - F82, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -9526,6 +10779,10 @@
       </c>
       <c r="L83" s="6">
         <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
+        <v/>
+      </c>
+      <c r="M83" s="6">
+        <f>IF(AND(ISNUMBER(G83), ISNUMBER(F83)), G83 - F83, "")</f>
         <v/>
       </c>
     </row>
@@ -9555,6 +10812,10 @@
         <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
+      <c r="M84" s="6">
+        <f>IF(AND(ISNUMBER(G84), ISNUMBER(F84)), G84 - F84, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -9582,6 +10843,10 @@
         <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
+      <c r="M85" s="6">
+        <f>IF(AND(ISNUMBER(G85), ISNUMBER(F85)), G85 - F85, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -9609,6 +10874,10 @@
         <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
+      <c r="M86" s="6">
+        <f>IF(AND(ISNUMBER(G86), ISNUMBER(F86)), G86 - F86, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -9636,6 +10905,10 @@
         <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
+      <c r="M87" s="6">
+        <f>IF(AND(ISNUMBER(G87), ISNUMBER(F87)), G87 - F87, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -9663,6 +10936,10 @@
         <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
+      <c r="M88" s="6">
+        <f>IF(AND(ISNUMBER(G88), ISNUMBER(F88)), G88 - F88, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -9690,6 +10967,10 @@
         <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
+      <c r="M89" s="6">
+        <f>IF(AND(ISNUMBER(G89), ISNUMBER(F89)), G89 - F89, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -9717,6 +10998,10 @@
       </c>
       <c r="L90" s="6">
         <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
+        <v/>
+      </c>
+      <c r="M90" s="6">
+        <f>IF(AND(ISNUMBER(G90), ISNUMBER(F90)), G90 - F90, "")</f>
         <v/>
       </c>
     </row>
@@ -9746,6 +11031,10 @@
         <f>IF(AND(ISNUMBER(K91), ISNUMBER(C91)), K91 - C91, "")</f>
         <v/>
       </c>
+      <c r="M91" s="6">
+        <f>IF(AND(ISNUMBER(G91), ISNUMBER(F91)), G91 - F91, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -9773,6 +11062,10 @@
         <f>IF(AND(ISNUMBER(K92), ISNUMBER(C92)), K92 - C92, "")</f>
         <v/>
       </c>
+      <c r="M92" s="6">
+        <f>IF(AND(ISNUMBER(G92), ISNUMBER(F92)), G92 - F92, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -9800,6 +11093,10 @@
       </c>
       <c r="L93" s="6">
         <f>IF(AND(ISNUMBER(K93), ISNUMBER(C93)), K93 - C93, "")</f>
+        <v/>
+      </c>
+      <c r="M93" s="6">
+        <f>IF(AND(ISNUMBER(G93), ISNUMBER(F93)), G93 - F93, "")</f>
         <v/>
       </c>
     </row>
@@ -9829,6 +11126,10 @@
         <f>IF(AND(ISNUMBER(K94), ISNUMBER(C94)), K94 - C94, "")</f>
         <v/>
       </c>
+      <c r="M94" s="6">
+        <f>IF(AND(ISNUMBER(G94), ISNUMBER(F94)), G94 - F94, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -9856,6 +11157,10 @@
         <f>IF(AND(ISNUMBER(K95), ISNUMBER(C95)), K95 - C95, "")</f>
         <v/>
       </c>
+      <c r="M95" s="6">
+        <f>IF(AND(ISNUMBER(G95), ISNUMBER(F95)), G95 - F95, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -9883,6 +11188,10 @@
         <f>IF(AND(ISNUMBER(K96), ISNUMBER(C96)), K96 - C96, "")</f>
         <v/>
       </c>
+      <c r="M96" s="6">
+        <f>IF(AND(ISNUMBER(G96), ISNUMBER(F96)), G96 - F96, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -9910,6 +11219,10 @@
         <f>IF(AND(ISNUMBER(K97), ISNUMBER(C97)), K97 - C97, "")</f>
         <v/>
       </c>
+      <c r="M97" s="6">
+        <f>IF(AND(ISNUMBER(G97), ISNUMBER(F97)), G97 - F97, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
@@ -9937,6 +11250,10 @@
       </c>
       <c r="L98" s="6">
         <f>IF(AND(ISNUMBER(K98), ISNUMBER(C98)), K98 - C98, "")</f>
+        <v/>
+      </c>
+      <c r="M98" s="6">
+        <f>IF(AND(ISNUMBER(G98), ISNUMBER(F98)), G98 - F98, "")</f>
         <v/>
       </c>
     </row>
@@ -9966,6 +11283,10 @@
         <f>IF(AND(ISNUMBER(K99), ISNUMBER(C99)), K99 - C99, "")</f>
         <v/>
       </c>
+      <c r="M99" s="6">
+        <f>IF(AND(ISNUMBER(G99), ISNUMBER(F99)), G99 - F99, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -9995,6 +11316,10 @@
         <f>IF(AND(ISNUMBER(K100), ISNUMBER(C100)), K100 - C100, "")</f>
         <v/>
       </c>
+      <c r="M100" s="6">
+        <f>IF(AND(ISNUMBER(G100), ISNUMBER(F100)), G100 - F100, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -10022,6 +11347,10 @@
       </c>
       <c r="L101" s="6">
         <f>IF(AND(ISNUMBER(K101), ISNUMBER(C101)), K101 - C101, "")</f>
+        <v/>
+      </c>
+      <c r="M101" s="6">
+        <f>IF(AND(ISNUMBER(G101), ISNUMBER(F101)), G101 - F101, "")</f>
         <v/>
       </c>
     </row>
@@ -10051,6 +11380,10 @@
         <f>IF(AND(ISNUMBER(K102), ISNUMBER(C102)), K102 - C102, "")</f>
         <v/>
       </c>
+      <c r="M102" s="6">
+        <f>IF(AND(ISNUMBER(G102), ISNUMBER(F102)), G102 - F102, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -10078,6 +11411,10 @@
         <f>IF(AND(ISNUMBER(K103), ISNUMBER(C103)), K103 - C103, "")</f>
         <v/>
       </c>
+      <c r="M103" s="6">
+        <f>IF(AND(ISNUMBER(G103), ISNUMBER(F103)), G103 - F103, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -10105,6 +11442,10 @@
         <f>IF(AND(ISNUMBER(K104), ISNUMBER(C104)), K104 - C104, "")</f>
         <v/>
       </c>
+      <c r="M104" s="6">
+        <f>IF(AND(ISNUMBER(G104), ISNUMBER(F104)), G104 - F104, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -10134,6 +11475,10 @@
         <f>IF(AND(ISNUMBER(K105), ISNUMBER(C105)), K105 - C105, "")</f>
         <v/>
       </c>
+      <c r="M105" s="6">
+        <f>IF(AND(ISNUMBER(G105), ISNUMBER(F105)), G105 - F105, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
@@ -10161,6 +11506,10 @@
       </c>
       <c r="L106" s="6">
         <f>IF(AND(ISNUMBER(K106), ISNUMBER(C106)), K106 - C106, "")</f>
+        <v/>
+      </c>
+      <c r="M106" s="6">
+        <f>IF(AND(ISNUMBER(G106), ISNUMBER(F106)), G106 - F106, "")</f>
         <v/>
       </c>
     </row>
@@ -10190,6 +11539,10 @@
         <f>IF(AND(ISNUMBER(K107), ISNUMBER(C107)), K107 - C107, "")</f>
         <v/>
       </c>
+      <c r="M107" s="6">
+        <f>IF(AND(ISNUMBER(G107), ISNUMBER(F107)), G107 - F107, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
@@ -10217,6 +11570,10 @@
         <f>IF(AND(ISNUMBER(K108), ISNUMBER(C108)), K108 - C108, "")</f>
         <v/>
       </c>
+      <c r="M108" s="6">
+        <f>IF(AND(ISNUMBER(G108), ISNUMBER(F108)), G108 - F108, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
@@ -10244,6 +11601,10 @@
         <f>IF(AND(ISNUMBER(K109), ISNUMBER(C109)), K109 - C109, "")</f>
         <v/>
       </c>
+      <c r="M109" s="6">
+        <f>IF(AND(ISNUMBER(G109), ISNUMBER(F109)), G109 - F109, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
@@ -10273,6 +11634,10 @@
         <f>IF(AND(ISNUMBER(K110), ISNUMBER(C110)), K110 - C110, "")</f>
         <v/>
       </c>
+      <c r="M110" s="6">
+        <f>IF(AND(ISNUMBER(G110), ISNUMBER(F110)), G110 - F110, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
@@ -10302,6 +11667,10 @@
         <f>IF(AND(ISNUMBER(K111), ISNUMBER(C111)), K111 - C111, "")</f>
         <v/>
       </c>
+      <c r="M111" s="6">
+        <f>IF(AND(ISNUMBER(G111), ISNUMBER(F111)), G111 - F111, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
@@ -10331,6 +11700,10 @@
         <f>IF(AND(ISNUMBER(K112), ISNUMBER(C112)), K112 - C112, "")</f>
         <v/>
       </c>
+      <c r="M112" s="6">
+        <f>IF(AND(ISNUMBER(G112), ISNUMBER(F112)), G112 - F112, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
@@ -10360,6 +11733,10 @@
         <f>IF(AND(ISNUMBER(K113), ISNUMBER(C113)), K113 - C113, "")</f>
         <v/>
       </c>
+      <c r="M113" s="6">
+        <f>IF(AND(ISNUMBER(G113), ISNUMBER(F113)), G113 - F113, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
@@ -10389,6 +11766,10 @@
         <f>IF(AND(ISNUMBER(K114), ISNUMBER(C114)), K114 - C114, "")</f>
         <v/>
       </c>
+      <c r="M114" s="6">
+        <f>IF(AND(ISNUMBER(G114), ISNUMBER(F114)), G114 - F114, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -10416,6 +11797,10 @@
       </c>
       <c r="L115" s="6">
         <f>IF(AND(ISNUMBER(K115), ISNUMBER(C115)), K115 - C115, "")</f>
+        <v/>
+      </c>
+      <c r="M115" s="6">
+        <f>IF(AND(ISNUMBER(G115), ISNUMBER(F115)), G115 - F115, "")</f>
         <v/>
       </c>
     </row>
@@ -10445,6 +11830,10 @@
         <f>IF(AND(ISNUMBER(K116), ISNUMBER(C116)), K116 - C116, "")</f>
         <v/>
       </c>
+      <c r="M116" s="6">
+        <f>IF(AND(ISNUMBER(G116), ISNUMBER(F116)), G116 - F116, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
@@ -10472,6 +11861,10 @@
         <f>IF(AND(ISNUMBER(K117), ISNUMBER(C117)), K117 - C117, "")</f>
         <v/>
       </c>
+      <c r="M117" s="6">
+        <f>IF(AND(ISNUMBER(G117), ISNUMBER(F117)), G117 - F117, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
@@ -10499,6 +11892,10 @@
       </c>
       <c r="L118" s="6">
         <f>IF(AND(ISNUMBER(K118), ISNUMBER(C118)), K118 - C118, "")</f>
+        <v/>
+      </c>
+      <c r="M118" s="6">
+        <f>IF(AND(ISNUMBER(G118), ISNUMBER(F118)), G118 - F118, "")</f>
         <v/>
       </c>
     </row>
@@ -10528,6 +11925,10 @@
         <f>IF(AND(ISNUMBER(K119), ISNUMBER(C119)), K119 - C119, "")</f>
         <v/>
       </c>
+      <c r="M119" s="6">
+        <f>IF(AND(ISNUMBER(G119), ISNUMBER(F119)), G119 - F119, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
@@ -10553,6 +11954,10 @@
       </c>
       <c r="L120" s="6">
         <f>IF(AND(ISNUMBER(K120), ISNUMBER(C120)), K120 - C120, "")</f>
+        <v/>
+      </c>
+      <c r="M120" s="6">
+        <f>IF(AND(ISNUMBER(G120), ISNUMBER(F120)), G120 - F120, "")</f>
         <v/>
       </c>
     </row>
@@ -10576,7 +11981,22 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L120">
-    <cfRule type="cellIs" priority="4" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="00C00000"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M120">
+    <cfRule type="cellIs" priority="8" operator="equal" stopIfTrue="1">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1000">
@@ -10591,7 +12011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:I120">
-    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>OR(LEN(TRIM($I7))&gt;0,LEN(TRIM($H7))&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10605,7 +12025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -10625,6 +12045,7 @@
     <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
     <col width="9.1" customWidth="1" min="11" max="11"/>
     <col width="9.1" customWidth="1" min="12" max="12"/>
+    <col width="9.1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10750,6 +12171,11 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Diff D</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Diff H</t>
         </is>
       </c>
     </row>
@@ -10781,6 +12207,10 @@
         <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
+      <c r="M7" s="6">
+        <f>IF(AND(ISNUMBER(G7), ISNUMBER(F7)), G7 - F7, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -10810,6 +12240,10 @@
         <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
+      <c r="M8" s="6">
+        <f>IF(AND(ISNUMBER(G8), ISNUMBER(F8)), G8 - F8, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -10839,6 +12273,10 @@
         <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
+      <c r="M9" s="6">
+        <f>IF(AND(ISNUMBER(G9), ISNUMBER(F9)), G9 - F9, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -10866,6 +12304,10 @@
       </c>
       <c r="L10" s="6">
         <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
+        <v/>
+      </c>
+      <c r="M10" s="6">
+        <f>IF(AND(ISNUMBER(G10), ISNUMBER(F10)), G10 - F10, "")</f>
         <v/>
       </c>
     </row>
@@ -10895,6 +12337,10 @@
         <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
+      <c r="M11" s="6">
+        <f>IF(AND(ISNUMBER(G11), ISNUMBER(F11)), G11 - F11, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -10922,6 +12368,10 @@
       </c>
       <c r="L12" s="6">
         <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
+        <v/>
+      </c>
+      <c r="M12" s="6">
+        <f>IF(AND(ISNUMBER(G12), ISNUMBER(F12)), G12 - F12, "")</f>
         <v/>
       </c>
     </row>
@@ -10951,6 +12401,10 @@
         <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
+      <c r="M13" s="6">
+        <f>IF(AND(ISNUMBER(G13), ISNUMBER(F13)), G13 - F13, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -10980,6 +12434,10 @@
         <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
+      <c r="M14" s="6">
+        <f>IF(AND(ISNUMBER(G14), ISNUMBER(F14)), G14 - F14, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -11007,6 +12465,10 @@
       </c>
       <c r="L15" s="6">
         <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="6">
+        <f>IF(AND(ISNUMBER(G15), ISNUMBER(F15)), G15 - F15, "")</f>
         <v/>
       </c>
     </row>
@@ -11036,6 +12498,10 @@
         <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
+      <c r="M16" s="6">
+        <f>IF(AND(ISNUMBER(G16), ISNUMBER(F16)), G16 - F16, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -11063,6 +12529,10 @@
         <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
+      <c r="M17" s="6">
+        <f>IF(AND(ISNUMBER(G17), ISNUMBER(F17)), G17 - F17, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -11090,6 +12560,10 @@
         <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
+      <c r="M18" s="6">
+        <f>IF(AND(ISNUMBER(G18), ISNUMBER(F18)), G18 - F18, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -11117,6 +12591,10 @@
         <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
+      <c r="M19" s="6">
+        <f>IF(AND(ISNUMBER(G19), ISNUMBER(F19)), G19 - F19, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -11146,6 +12624,10 @@
         <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
+      <c r="M20" s="6">
+        <f>IF(AND(ISNUMBER(G20), ISNUMBER(F20)), G20 - F20, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -11173,6 +12655,10 @@
       </c>
       <c r="L21" s="6">
         <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
+        <v/>
+      </c>
+      <c r="M21" s="6">
+        <f>IF(AND(ISNUMBER(G21), ISNUMBER(F21)), G21 - F21, "")</f>
         <v/>
       </c>
     </row>
@@ -11202,6 +12688,10 @@
         <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
+      <c r="M22" s="6">
+        <f>IF(AND(ISNUMBER(G22), ISNUMBER(F22)), G22 - F22, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -11229,6 +12719,10 @@
       </c>
       <c r="L23" s="6">
         <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
+        <v/>
+      </c>
+      <c r="M23" s="6">
+        <f>IF(AND(ISNUMBER(G23), ISNUMBER(F23)), G23 - F23, "")</f>
         <v/>
       </c>
     </row>
@@ -11258,6 +12752,10 @@
         <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
+      <c r="M24" s="6">
+        <f>IF(AND(ISNUMBER(G24), ISNUMBER(F24)), G24 - F24, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -11285,6 +12783,10 @@
         <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
+      <c r="M25" s="6">
+        <f>IF(AND(ISNUMBER(G25), ISNUMBER(F25)), G25 - F25, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -11312,6 +12814,10 @@
       </c>
       <c r="L26" s="6">
         <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
+        <v/>
+      </c>
+      <c r="M26" s="6">
+        <f>IF(AND(ISNUMBER(G26), ISNUMBER(F26)), G26 - F26, "")</f>
         <v/>
       </c>
     </row>
@@ -11341,6 +12847,10 @@
         <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
+      <c r="M27" s="6">
+        <f>IF(AND(ISNUMBER(G27), ISNUMBER(F27)), G27 - F27, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -11368,6 +12878,10 @@
         <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
+      <c r="M28" s="6">
+        <f>IF(AND(ISNUMBER(G28), ISNUMBER(F28)), G28 - F28, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -11395,6 +12909,10 @@
         <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
+      <c r="M29" s="6">
+        <f>IF(AND(ISNUMBER(G29), ISNUMBER(F29)), G29 - F29, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -11422,6 +12940,10 @@
         <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
+      <c r="M30" s="6">
+        <f>IF(AND(ISNUMBER(G30), ISNUMBER(F30)), G30 - F30, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -11449,6 +12971,10 @@
       </c>
       <c r="L31" s="6">
         <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="6">
+        <f>IF(AND(ISNUMBER(G31), ISNUMBER(F31)), G31 - F31, "")</f>
         <v/>
       </c>
     </row>
@@ -11478,6 +13004,10 @@
         <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
+      <c r="M32" s="6">
+        <f>IF(AND(ISNUMBER(G32), ISNUMBER(F32)), G32 - F32, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -11505,6 +13035,10 @@
       </c>
       <c r="L33" s="6">
         <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="6">
+        <f>IF(AND(ISNUMBER(G33), ISNUMBER(F33)), G33 - F33, "")</f>
         <v/>
       </c>
     </row>
@@ -11534,6 +13068,10 @@
         <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
+      <c r="M34" s="6">
+        <f>IF(AND(ISNUMBER(G34), ISNUMBER(F34)), G34 - F34, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -11561,6 +13099,10 @@
         <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
+      <c r="M35" s="6">
+        <f>IF(AND(ISNUMBER(G35), ISNUMBER(F35)), G35 - F35, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -11588,6 +13130,10 @@
         <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
+      <c r="M36" s="6">
+        <f>IF(AND(ISNUMBER(G36), ISNUMBER(F36)), G36 - F36, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -11615,6 +13161,10 @@
       </c>
       <c r="L37" s="6">
         <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
+        <v/>
+      </c>
+      <c r="M37" s="6">
+        <f>IF(AND(ISNUMBER(G37), ISNUMBER(F37)), G37 - F37, "")</f>
         <v/>
       </c>
     </row>
@@ -11644,6 +13194,10 @@
         <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
+      <c r="M38" s="6">
+        <f>IF(AND(ISNUMBER(G38), ISNUMBER(F38)), G38 - F38, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -11671,6 +13225,10 @@
         <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
+      <c r="M39" s="6">
+        <f>IF(AND(ISNUMBER(G39), ISNUMBER(F39)), G39 - F39, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -11698,6 +13256,10 @@
       </c>
       <c r="L40" s="6">
         <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
+        <v/>
+      </c>
+      <c r="M40" s="6">
+        <f>IF(AND(ISNUMBER(G40), ISNUMBER(F40)), G40 - F40, "")</f>
         <v/>
       </c>
     </row>
@@ -11727,6 +13289,10 @@
         <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
+      <c r="M41" s="6">
+        <f>IF(AND(ISNUMBER(G41), ISNUMBER(F41)), G41 - F41, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -11754,6 +13320,10 @@
         <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
+      <c r="M42" s="6">
+        <f>IF(AND(ISNUMBER(G42), ISNUMBER(F42)), G42 - F42, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -11781,6 +13351,10 @@
       </c>
       <c r="L43" s="6">
         <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="6">
+        <f>IF(AND(ISNUMBER(G43), ISNUMBER(F43)), G43 - F43, "")</f>
         <v/>
       </c>
     </row>
@@ -11810,6 +13384,10 @@
         <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
+      <c r="M44" s="6">
+        <f>IF(AND(ISNUMBER(G44), ISNUMBER(F44)), G44 - F44, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -11839,6 +13417,10 @@
         <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
+      <c r="M45" s="6">
+        <f>IF(AND(ISNUMBER(G45), ISNUMBER(F45)), G45 - F45, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -11866,6 +13448,10 @@
       </c>
       <c r="L46" s="6">
         <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
+        <v/>
+      </c>
+      <c r="M46" s="6">
+        <f>IF(AND(ISNUMBER(G46), ISNUMBER(F46)), G46 - F46, "")</f>
         <v/>
       </c>
     </row>
@@ -11895,6 +13481,10 @@
         <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
+      <c r="M47" s="6">
+        <f>IF(AND(ISNUMBER(G47), ISNUMBER(F47)), G47 - F47, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -11922,6 +13512,10 @@
       </c>
       <c r="L48" s="6">
         <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
+        <v/>
+      </c>
+      <c r="M48" s="6">
+        <f>IF(AND(ISNUMBER(G48), ISNUMBER(F48)), G48 - F48, "")</f>
         <v/>
       </c>
     </row>
@@ -11951,6 +13545,10 @@
         <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
+      <c r="M49" s="6">
+        <f>IF(AND(ISNUMBER(G49), ISNUMBER(F49)), G49 - F49, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -11980,6 +13578,10 @@
         <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
+      <c r="M50" s="6">
+        <f>IF(AND(ISNUMBER(G50), ISNUMBER(F50)), G50 - F50, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -12007,6 +13609,10 @@
       </c>
       <c r="L51" s="6">
         <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
+        <v/>
+      </c>
+      <c r="M51" s="6">
+        <f>IF(AND(ISNUMBER(G51), ISNUMBER(F51)), G51 - F51, "")</f>
         <v/>
       </c>
     </row>
@@ -12036,6 +13642,10 @@
         <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
+      <c r="M52" s="6">
+        <f>IF(AND(ISNUMBER(G52), ISNUMBER(F52)), G52 - F52, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -12063,6 +13673,10 @@
       </c>
       <c r="L53" s="6">
         <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="6">
+        <f>IF(AND(ISNUMBER(G53), ISNUMBER(F53)), G53 - F53, "")</f>
         <v/>
       </c>
     </row>
@@ -12092,6 +13706,10 @@
         <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
+      <c r="M54" s="6">
+        <f>IF(AND(ISNUMBER(G54), ISNUMBER(F54)), G54 - F54, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -12119,6 +13737,10 @@
       </c>
       <c r="L55" s="6">
         <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
+        <v/>
+      </c>
+      <c r="M55" s="6">
+        <f>IF(AND(ISNUMBER(G55), ISNUMBER(F55)), G55 - F55, "")</f>
         <v/>
       </c>
     </row>
@@ -12148,6 +13770,10 @@
         <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
+      <c r="M56" s="6">
+        <f>IF(AND(ISNUMBER(G56), ISNUMBER(F56)), G56 - F56, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -12177,6 +13803,10 @@
         <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
+      <c r="M57" s="6">
+        <f>IF(AND(ISNUMBER(G57), ISNUMBER(F57)), G57 - F57, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -12204,6 +13834,10 @@
       </c>
       <c r="L58" s="6">
         <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="6">
+        <f>IF(AND(ISNUMBER(G58), ISNUMBER(F58)), G58 - F58, "")</f>
         <v/>
       </c>
     </row>
@@ -12233,6 +13867,10 @@
         <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
+      <c r="M59" s="6">
+        <f>IF(AND(ISNUMBER(G59), ISNUMBER(F59)), G59 - F59, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -12260,6 +13898,10 @@
       </c>
       <c r="L60" s="6">
         <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="6">
+        <f>IF(AND(ISNUMBER(G60), ISNUMBER(F60)), G60 - F60, "")</f>
         <v/>
       </c>
     </row>
@@ -12289,6 +13931,10 @@
         <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
+      <c r="M61" s="6">
+        <f>IF(AND(ISNUMBER(G61), ISNUMBER(F61)), G61 - F61, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -12316,6 +13962,10 @@
       </c>
       <c r="L62" s="6">
         <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="6">
+        <f>IF(AND(ISNUMBER(G62), ISNUMBER(F62)), G62 - F62, "")</f>
         <v/>
       </c>
     </row>
@@ -12345,6 +13995,10 @@
         <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
+      <c r="M63" s="6">
+        <f>IF(AND(ISNUMBER(G63), ISNUMBER(F63)), G63 - F63, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -12374,6 +14028,10 @@
         <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
+      <c r="M64" s="6">
+        <f>IF(AND(ISNUMBER(G64), ISNUMBER(F64)), G64 - F64, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -12401,6 +14059,10 @@
       </c>
       <c r="L65" s="6">
         <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="6">
+        <f>IF(AND(ISNUMBER(G65), ISNUMBER(F65)), G65 - F65, "")</f>
         <v/>
       </c>
     </row>
@@ -12430,6 +14092,10 @@
         <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
+      <c r="M66" s="6">
+        <f>IF(AND(ISNUMBER(G66), ISNUMBER(F66)), G66 - F66, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -12457,6 +14123,10 @@
       </c>
       <c r="L67" s="6">
         <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="6">
+        <f>IF(AND(ISNUMBER(G67), ISNUMBER(F67)), G67 - F67, "")</f>
         <v/>
       </c>
     </row>
@@ -12486,6 +14156,10 @@
         <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
+      <c r="M68" s="6">
+        <f>IF(AND(ISNUMBER(G68), ISNUMBER(F68)), G68 - F68, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -12515,6 +14189,10 @@
         <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
+      <c r="M69" s="6">
+        <f>IF(AND(ISNUMBER(G69), ISNUMBER(F69)), G69 - F69, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -12542,6 +14220,10 @@
       </c>
       <c r="L70" s="6">
         <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
+        <v/>
+      </c>
+      <c r="M70" s="6">
+        <f>IF(AND(ISNUMBER(G70), ISNUMBER(F70)), G70 - F70, "")</f>
         <v/>
       </c>
     </row>
@@ -12571,6 +14253,10 @@
         <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
+      <c r="M71" s="6">
+        <f>IF(AND(ISNUMBER(G71), ISNUMBER(F71)), G71 - F71, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -12600,6 +14286,10 @@
         <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
+      <c r="M72" s="6">
+        <f>IF(AND(ISNUMBER(G72), ISNUMBER(F72)), G72 - F72, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -12627,6 +14317,10 @@
       </c>
       <c r="L73" s="6">
         <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
+        <v/>
+      </c>
+      <c r="M73" s="6">
+        <f>IF(AND(ISNUMBER(G73), ISNUMBER(F73)), G73 - F73, "")</f>
         <v/>
       </c>
     </row>
@@ -12656,6 +14350,10 @@
         <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
+      <c r="M74" s="6">
+        <f>IF(AND(ISNUMBER(G74), ISNUMBER(F74)), G74 - F74, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -12683,6 +14381,10 @@
         <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
+      <c r="M75" s="6">
+        <f>IF(AND(ISNUMBER(G75), ISNUMBER(F75)), G75 - F75, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -12710,6 +14412,10 @@
       </c>
       <c r="L76" s="6">
         <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
+        <v/>
+      </c>
+      <c r="M76" s="6">
+        <f>IF(AND(ISNUMBER(G76), ISNUMBER(F76)), G76 - F76, "")</f>
         <v/>
       </c>
     </row>
@@ -12739,6 +14445,10 @@
         <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
+      <c r="M77" s="6">
+        <f>IF(AND(ISNUMBER(G77), ISNUMBER(F77)), G77 - F77, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -12766,6 +14476,10 @@
         <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
+      <c r="M78" s="6">
+        <f>IF(AND(ISNUMBER(G78), ISNUMBER(F78)), G78 - F78, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -12795,6 +14509,10 @@
         <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
+      <c r="M79" s="6">
+        <f>IF(AND(ISNUMBER(G79), ISNUMBER(F79)), G79 - F79, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -12824,6 +14542,10 @@
         <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
+      <c r="M80" s="6">
+        <f>IF(AND(ISNUMBER(G80), ISNUMBER(F80)), G80 - F80, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -12853,6 +14575,10 @@
         <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
+      <c r="M81" s="6">
+        <f>IF(AND(ISNUMBER(G81), ISNUMBER(F81)), G81 - F81, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -12882,6 +14608,10 @@
         <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
+      <c r="M82" s="6">
+        <f>IF(AND(ISNUMBER(G82), ISNUMBER(F82)), G82 - F82, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -12911,6 +14641,10 @@
         <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
+      <c r="M83" s="6">
+        <f>IF(AND(ISNUMBER(G83), ISNUMBER(F83)), G83 - F83, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -12938,6 +14672,10 @@
       </c>
       <c r="L84" s="6">
         <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
+        <v/>
+      </c>
+      <c r="M84" s="6">
+        <f>IF(AND(ISNUMBER(G84), ISNUMBER(F84)), G84 - F84, "")</f>
         <v/>
       </c>
     </row>
@@ -12967,6 +14705,10 @@
         <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
+      <c r="M85" s="6">
+        <f>IF(AND(ISNUMBER(G85), ISNUMBER(F85)), G85 - F85, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -12994,6 +14736,10 @@
         <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
+      <c r="M86" s="6">
+        <f>IF(AND(ISNUMBER(G86), ISNUMBER(F86)), G86 - F86, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -13023,6 +14769,10 @@
         <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
+      <c r="M87" s="6">
+        <f>IF(AND(ISNUMBER(G87), ISNUMBER(F87)), G87 - F87, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -13052,6 +14802,10 @@
         <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
+      <c r="M88" s="6">
+        <f>IF(AND(ISNUMBER(G88), ISNUMBER(F88)), G88 - F88, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -13079,6 +14833,10 @@
       </c>
       <c r="L89" s="6">
         <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
+        <v/>
+      </c>
+      <c r="M89" s="6">
+        <f>IF(AND(ISNUMBER(G89), ISNUMBER(F89)), G89 - F89, "")</f>
         <v/>
       </c>
     </row>
@@ -13108,6 +14866,10 @@
         <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
         <v/>
       </c>
+      <c r="M90" s="6">
+        <f>IF(AND(ISNUMBER(G90), ISNUMBER(F90)), G90 - F90, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -13135,6 +14897,10 @@
         <f>IF(AND(ISNUMBER(K91), ISNUMBER(C91)), K91 - C91, "")</f>
         <v/>
       </c>
+      <c r="M91" s="6">
+        <f>IF(AND(ISNUMBER(G91), ISNUMBER(F91)), G91 - F91, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -13162,6 +14928,10 @@
         <f>IF(AND(ISNUMBER(K92), ISNUMBER(C92)), K92 - C92, "")</f>
         <v/>
       </c>
+      <c r="M92" s="6">
+        <f>IF(AND(ISNUMBER(G92), ISNUMBER(F92)), G92 - F92, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -13191,6 +14961,10 @@
         <f>IF(AND(ISNUMBER(K93), ISNUMBER(C93)), K93 - C93, "")</f>
         <v/>
       </c>
+      <c r="M93" s="6">
+        <f>IF(AND(ISNUMBER(G93), ISNUMBER(F93)), G93 - F93, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -13220,6 +14994,10 @@
         <f>IF(AND(ISNUMBER(K94), ISNUMBER(C94)), K94 - C94, "")</f>
         <v/>
       </c>
+      <c r="M94" s="6">
+        <f>IF(AND(ISNUMBER(G94), ISNUMBER(F94)), G94 - F94, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -13249,6 +15027,10 @@
         <f>IF(AND(ISNUMBER(K95), ISNUMBER(C95)), K95 - C95, "")</f>
         <v/>
       </c>
+      <c r="M95" s="6">
+        <f>IF(AND(ISNUMBER(G95), ISNUMBER(F95)), G95 - F95, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -13276,6 +15058,10 @@
       </c>
       <c r="L96" s="6">
         <f>IF(AND(ISNUMBER(K96), ISNUMBER(C96)), K96 - C96, "")</f>
+        <v/>
+      </c>
+      <c r="M96" s="6">
+        <f>IF(AND(ISNUMBER(G96), ISNUMBER(F96)), G96 - F96, "")</f>
         <v/>
       </c>
     </row>
@@ -13303,6 +15089,10 @@
       </c>
       <c r="L97" s="6">
         <f>IF(AND(ISNUMBER(K97), ISNUMBER(C97)), K97 - C97, "")</f>
+        <v/>
+      </c>
+      <c r="M97" s="6">
+        <f>IF(AND(ISNUMBER(G97), ISNUMBER(F97)), G97 - F97, "")</f>
         <v/>
       </c>
     </row>
@@ -13326,7 +15116,22 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L97">
-    <cfRule type="cellIs" priority="5" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="00C00000"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M97">
+    <cfRule type="cellIs" priority="10" operator="equal" stopIfTrue="1">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1000">
@@ -13341,7 +15146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:I97">
-    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>OR(LEN(TRIM($I7))&gt;0,LEN(TRIM($H7))&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13355,7 +15160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -13375,6 +15180,7 @@
     <col width="7.800000000000001" customWidth="1" min="9" max="9"/>
     <col width="9.1" customWidth="1" min="11" max="11"/>
     <col width="9.1" customWidth="1" min="12" max="12"/>
+    <col width="9.1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13500,6 +15306,11 @@
       <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Diff D</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Diff H</t>
         </is>
       </c>
     </row>
@@ -13529,6 +15340,10 @@
       </c>
       <c r="L7" s="6">
         <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
+        <v/>
+      </c>
+      <c r="M7" s="6">
+        <f>IF(AND(ISNUMBER(G7), ISNUMBER(F7)), G7 - F7, "")</f>
         <v/>
       </c>
     </row>
@@ -13558,6 +15373,10 @@
         <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
+      <c r="M8" s="6">
+        <f>IF(AND(ISNUMBER(G8), ISNUMBER(F8)), G8 - F8, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -13585,6 +15404,10 @@
       </c>
       <c r="L9" s="6">
         <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
+        <v/>
+      </c>
+      <c r="M9" s="6">
+        <f>IF(AND(ISNUMBER(G9), ISNUMBER(F9)), G9 - F9, "")</f>
         <v/>
       </c>
     </row>
@@ -13614,6 +15437,10 @@
         <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
+      <c r="M10" s="6">
+        <f>IF(AND(ISNUMBER(G10), ISNUMBER(F10)), G10 - F10, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -13641,6 +15468,10 @@
       </c>
       <c r="L11" s="6">
         <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
+        <v/>
+      </c>
+      <c r="M11" s="6">
+        <f>IF(AND(ISNUMBER(G11), ISNUMBER(F11)), G11 - F11, "")</f>
         <v/>
       </c>
     </row>
@@ -13670,6 +15501,10 @@
         <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
+      <c r="M12" s="6">
+        <f>IF(AND(ISNUMBER(G12), ISNUMBER(F12)), G12 - F12, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -13697,6 +15532,10 @@
       </c>
       <c r="L13" s="6">
         <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
+        <v/>
+      </c>
+      <c r="M13" s="6">
+        <f>IF(AND(ISNUMBER(G13), ISNUMBER(F13)), G13 - F13, "")</f>
         <v/>
       </c>
     </row>
@@ -13726,6 +15565,10 @@
         <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
+      <c r="M14" s="6">
+        <f>IF(AND(ISNUMBER(G14), ISNUMBER(F14)), G14 - F14, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -13755,6 +15598,10 @@
         <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
+      <c r="M15" s="6">
+        <f>IF(AND(ISNUMBER(G15), ISNUMBER(F15)), G15 - F15, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -13784,6 +15631,10 @@
         <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
+      <c r="M16" s="6">
+        <f>IF(AND(ISNUMBER(G16), ISNUMBER(F16)), G16 - F16, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -13813,6 +15664,10 @@
         <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
+      <c r="M17" s="6">
+        <f>IF(AND(ISNUMBER(G17), ISNUMBER(F17)), G17 - F17, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -13842,6 +15697,10 @@
         <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
+      <c r="M18" s="6">
+        <f>IF(AND(ISNUMBER(G18), ISNUMBER(F18)), G18 - F18, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -13871,6 +15730,10 @@
         <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
+      <c r="M19" s="6">
+        <f>IF(AND(ISNUMBER(G19), ISNUMBER(F19)), G19 - F19, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -13900,6 +15763,10 @@
         <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
+      <c r="M20" s="6">
+        <f>IF(AND(ISNUMBER(G20), ISNUMBER(F20)), G20 - F20, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -13929,6 +15796,10 @@
         <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
+      <c r="M21" s="6">
+        <f>IF(AND(ISNUMBER(G21), ISNUMBER(F21)), G21 - F21, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -13958,6 +15829,10 @@
         <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
+      <c r="M22" s="6">
+        <f>IF(AND(ISNUMBER(G22), ISNUMBER(F22)), G22 - F22, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -13987,6 +15862,10 @@
         <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
+      <c r="M23" s="6">
+        <f>IF(AND(ISNUMBER(G23), ISNUMBER(F23)), G23 - F23, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -14014,6 +15893,10 @@
       </c>
       <c r="L24" s="6">
         <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
+        <v/>
+      </c>
+      <c r="M24" s="6">
+        <f>IF(AND(ISNUMBER(G24), ISNUMBER(F24)), G24 - F24, "")</f>
         <v/>
       </c>
     </row>
@@ -14043,6 +15926,10 @@
         <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
+      <c r="M25" s="6">
+        <f>IF(AND(ISNUMBER(G25), ISNUMBER(F25)), G25 - F25, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -14070,6 +15957,10 @@
       </c>
       <c r="L26" s="6">
         <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
+        <v/>
+      </c>
+      <c r="M26" s="6">
+        <f>IF(AND(ISNUMBER(G26), ISNUMBER(F26)), G26 - F26, "")</f>
         <v/>
       </c>
     </row>
@@ -14099,6 +15990,10 @@
         <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
+      <c r="M27" s="6">
+        <f>IF(AND(ISNUMBER(G27), ISNUMBER(F27)), G27 - F27, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -14126,6 +16021,10 @@
         <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
+      <c r="M28" s="6">
+        <f>IF(AND(ISNUMBER(G28), ISNUMBER(F28)), G28 - F28, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -14155,6 +16054,10 @@
         <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
+      <c r="M29" s="6">
+        <f>IF(AND(ISNUMBER(G29), ISNUMBER(F29)), G29 - F29, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -14182,6 +16085,10 @@
       </c>
       <c r="L30" s="6">
         <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="6">
+        <f>IF(AND(ISNUMBER(G30), ISNUMBER(F30)), G30 - F30, "")</f>
         <v/>
       </c>
     </row>
@@ -14211,6 +16118,10 @@
         <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
+      <c r="M31" s="6">
+        <f>IF(AND(ISNUMBER(G31), ISNUMBER(F31)), G31 - F31, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -14238,6 +16149,10 @@
         <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
+      <c r="M32" s="6">
+        <f>IF(AND(ISNUMBER(G32), ISNUMBER(F32)), G32 - F32, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -14265,6 +16180,10 @@
         <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
+      <c r="M33" s="6">
+        <f>IF(AND(ISNUMBER(G33), ISNUMBER(F33)), G33 - F33, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -14294,6 +16213,10 @@
         <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
+      <c r="M34" s="6">
+        <f>IF(AND(ISNUMBER(G34), ISNUMBER(F34)), G34 - F34, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -14323,6 +16246,10 @@
         <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
+      <c r="M35" s="6">
+        <f>IF(AND(ISNUMBER(G35), ISNUMBER(F35)), G35 - F35, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -14350,6 +16277,10 @@
       </c>
       <c r="L36" s="6">
         <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
+        <v/>
+      </c>
+      <c r="M36" s="6">
+        <f>IF(AND(ISNUMBER(G36), ISNUMBER(F36)), G36 - F36, "")</f>
         <v/>
       </c>
     </row>
@@ -14379,6 +16310,10 @@
         <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
+      <c r="M37" s="6">
+        <f>IF(AND(ISNUMBER(G37), ISNUMBER(F37)), G37 - F37, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -14408,6 +16343,10 @@
         <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
+      <c r="M38" s="6">
+        <f>IF(AND(ISNUMBER(G38), ISNUMBER(F38)), G38 - F38, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -14437,6 +16376,10 @@
         <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
+      <c r="M39" s="6">
+        <f>IF(AND(ISNUMBER(G39), ISNUMBER(F39)), G39 - F39, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -14466,6 +16409,10 @@
         <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
+      <c r="M40" s="6">
+        <f>IF(AND(ISNUMBER(G40), ISNUMBER(F40)), G40 - F40, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -14495,6 +16442,10 @@
         <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
+      <c r="M41" s="6">
+        <f>IF(AND(ISNUMBER(G41), ISNUMBER(F41)), G41 - F41, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -14524,6 +16475,10 @@
         <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
+      <c r="M42" s="6">
+        <f>IF(AND(ISNUMBER(G42), ISNUMBER(F42)), G42 - F42, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -14551,6 +16506,10 @@
       </c>
       <c r="L43" s="6">
         <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="6">
+        <f>IF(AND(ISNUMBER(G43), ISNUMBER(F43)), G43 - F43, "")</f>
         <v/>
       </c>
     </row>
@@ -14580,6 +16539,10 @@
         <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
+      <c r="M44" s="6">
+        <f>IF(AND(ISNUMBER(G44), ISNUMBER(F44)), G44 - F44, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -14609,6 +16572,10 @@
         <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
+      <c r="M45" s="6">
+        <f>IF(AND(ISNUMBER(G45), ISNUMBER(F45)), G45 - F45, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -14636,6 +16603,10 @@
       </c>
       <c r="L46" s="6">
         <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
+        <v/>
+      </c>
+      <c r="M46" s="6">
+        <f>IF(AND(ISNUMBER(G46), ISNUMBER(F46)), G46 - F46, "")</f>
         <v/>
       </c>
     </row>
@@ -14665,6 +16636,10 @@
         <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
+      <c r="M47" s="6">
+        <f>IF(AND(ISNUMBER(G47), ISNUMBER(F47)), G47 - F47, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -14692,6 +16667,10 @@
         <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
+      <c r="M48" s="6">
+        <f>IF(AND(ISNUMBER(G48), ISNUMBER(F48)), G48 - F48, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -14721,6 +16700,10 @@
         <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
+      <c r="M49" s="6">
+        <f>IF(AND(ISNUMBER(G49), ISNUMBER(F49)), G49 - F49, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -14748,6 +16731,10 @@
       </c>
       <c r="L50" s="6">
         <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
+        <v/>
+      </c>
+      <c r="M50" s="6">
+        <f>IF(AND(ISNUMBER(G50), ISNUMBER(F50)), G50 - F50, "")</f>
         <v/>
       </c>
     </row>
@@ -14777,6 +16764,10 @@
         <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
+      <c r="M51" s="6">
+        <f>IF(AND(ISNUMBER(G51), ISNUMBER(F51)), G51 - F51, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -14804,6 +16795,10 @@
       </c>
       <c r="L52" s="6">
         <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="6">
+        <f>IF(AND(ISNUMBER(G52), ISNUMBER(F52)), G52 - F52, "")</f>
         <v/>
       </c>
     </row>
@@ -14833,6 +16828,10 @@
         <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
+      <c r="M53" s="6">
+        <f>IF(AND(ISNUMBER(G53), ISNUMBER(F53)), G53 - F53, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -14860,6 +16859,10 @@
         <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
+      <c r="M54" s="6">
+        <f>IF(AND(ISNUMBER(G54), ISNUMBER(F54)), G54 - F54, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -14889,6 +16892,10 @@
         <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
+      <c r="M55" s="6">
+        <f>IF(AND(ISNUMBER(G55), ISNUMBER(F55)), G55 - F55, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -14916,6 +16923,10 @@
       </c>
       <c r="L56" s="6">
         <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="6">
+        <f>IF(AND(ISNUMBER(G56), ISNUMBER(F56)), G56 - F56, "")</f>
         <v/>
       </c>
     </row>
@@ -14945,6 +16956,10 @@
         <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
+      <c r="M57" s="6">
+        <f>IF(AND(ISNUMBER(G57), ISNUMBER(F57)), G57 - F57, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -14972,6 +16987,10 @@
       </c>
       <c r="L58" s="6">
         <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="6">
+        <f>IF(AND(ISNUMBER(G58), ISNUMBER(F58)), G58 - F58, "")</f>
         <v/>
       </c>
     </row>
@@ -15001,6 +17020,10 @@
         <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
+      <c r="M59" s="6">
+        <f>IF(AND(ISNUMBER(G59), ISNUMBER(F59)), G59 - F59, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -15030,6 +17053,10 @@
         <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
+      <c r="M60" s="6">
+        <f>IF(AND(ISNUMBER(G60), ISNUMBER(F60)), G60 - F60, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -15057,6 +17084,10 @@
       </c>
       <c r="L61" s="6">
         <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
+        <v/>
+      </c>
+      <c r="M61" s="6">
+        <f>IF(AND(ISNUMBER(G61), ISNUMBER(F61)), G61 - F61, "")</f>
         <v/>
       </c>
     </row>
@@ -15086,6 +17117,10 @@
         <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
+      <c r="M62" s="6">
+        <f>IF(AND(ISNUMBER(G62), ISNUMBER(F62)), G62 - F62, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -15113,6 +17148,10 @@
         <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
+      <c r="M63" s="6">
+        <f>IF(AND(ISNUMBER(G63), ISNUMBER(F63)), G63 - F63, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -15140,6 +17179,10 @@
         <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
+      <c r="M64" s="6">
+        <f>IF(AND(ISNUMBER(G64), ISNUMBER(F64)), G64 - F64, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -15167,6 +17210,10 @@
       </c>
       <c r="L65" s="6">
         <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="6">
+        <f>IF(AND(ISNUMBER(G65), ISNUMBER(F65)), G65 - F65, "")</f>
         <v/>
       </c>
     </row>
@@ -15196,6 +17243,10 @@
         <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
+      <c r="M66" s="6">
+        <f>IF(AND(ISNUMBER(G66), ISNUMBER(F66)), G66 - F66, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -15223,6 +17274,10 @@
         <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
+      <c r="M67" s="6">
+        <f>IF(AND(ISNUMBER(G67), ISNUMBER(F67)), G67 - F67, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -15252,6 +17307,10 @@
         <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
+      <c r="M68" s="6">
+        <f>IF(AND(ISNUMBER(G68), ISNUMBER(F68)), G68 - F68, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -15281,6 +17340,10 @@
         <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
+      <c r="M69" s="6">
+        <f>IF(AND(ISNUMBER(G69), ISNUMBER(F69)), G69 - F69, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -15308,6 +17371,10 @@
       </c>
       <c r="L70" s="6">
         <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
+        <v/>
+      </c>
+      <c r="M70" s="6">
+        <f>IF(AND(ISNUMBER(G70), ISNUMBER(F70)), G70 - F70, "")</f>
         <v/>
       </c>
     </row>
@@ -15337,6 +17404,10 @@
         <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
+      <c r="M71" s="6">
+        <f>IF(AND(ISNUMBER(G71), ISNUMBER(F71)), G71 - F71, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -15364,6 +17435,10 @@
         <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
+      <c r="M72" s="6">
+        <f>IF(AND(ISNUMBER(G72), ISNUMBER(F72)), G72 - F72, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -15391,6 +17466,10 @@
         <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
+      <c r="M73" s="6">
+        <f>IF(AND(ISNUMBER(G73), ISNUMBER(F73)), G73 - F73, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -15418,6 +17497,10 @@
       </c>
       <c r="L74" s="6">
         <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
+        <v/>
+      </c>
+      <c r="M74" s="6">
+        <f>IF(AND(ISNUMBER(G74), ISNUMBER(F74)), G74 - F74, "")</f>
         <v/>
       </c>
     </row>
@@ -15447,6 +17530,10 @@
         <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
+      <c r="M75" s="6">
+        <f>IF(AND(ISNUMBER(G75), ISNUMBER(F75)), G75 - F75, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -15474,6 +17561,10 @@
         <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
+      <c r="M76" s="6">
+        <f>IF(AND(ISNUMBER(G76), ISNUMBER(F76)), G76 - F76, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -15501,6 +17592,10 @@
         <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
+      <c r="M77" s="6">
+        <f>IF(AND(ISNUMBER(G77), ISNUMBER(F77)), G77 - F77, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -15528,6 +17623,10 @@
       </c>
       <c r="L78" s="6">
         <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
+        <v/>
+      </c>
+      <c r="M78" s="6">
+        <f>IF(AND(ISNUMBER(G78), ISNUMBER(F78)), G78 - F78, "")</f>
         <v/>
       </c>
     </row>
@@ -15557,6 +17656,10 @@
         <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
+      <c r="M79" s="6">
+        <f>IF(AND(ISNUMBER(G79), ISNUMBER(F79)), G79 - F79, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -15584,6 +17687,10 @@
       </c>
       <c r="L80" s="6">
         <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
+        <v/>
+      </c>
+      <c r="M80" s="6">
+        <f>IF(AND(ISNUMBER(G80), ISNUMBER(F80)), G80 - F80, "")</f>
         <v/>
       </c>
     </row>
@@ -15613,6 +17720,10 @@
         <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
+      <c r="M81" s="6">
+        <f>IF(AND(ISNUMBER(G81), ISNUMBER(F81)), G81 - F81, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -15640,6 +17751,10 @@
         <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
+      <c r="M82" s="6">
+        <f>IF(AND(ISNUMBER(G82), ISNUMBER(F82)), G82 - F82, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -15667,6 +17782,10 @@
         <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
+      <c r="M83" s="6">
+        <f>IF(AND(ISNUMBER(G83), ISNUMBER(F83)), G83 - F83, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -15694,6 +17813,10 @@
         <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
+      <c r="M84" s="6">
+        <f>IF(AND(ISNUMBER(G84), ISNUMBER(F84)), G84 - F84, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -15721,6 +17844,10 @@
       </c>
       <c r="L85" s="6">
         <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
+        <v/>
+      </c>
+      <c r="M85" s="6">
+        <f>IF(AND(ISNUMBER(G85), ISNUMBER(F85)), G85 - F85, "")</f>
         <v/>
       </c>
     </row>
@@ -15750,6 +17877,10 @@
         <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
+      <c r="M86" s="6">
+        <f>IF(AND(ISNUMBER(G86), ISNUMBER(F86)), G86 - F86, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -15777,6 +17908,10 @@
         <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
+      <c r="M87" s="6">
+        <f>IF(AND(ISNUMBER(G87), ISNUMBER(F87)), G87 - F87, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -15804,6 +17939,10 @@
       </c>
       <c r="L88" s="6">
         <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
+        <v/>
+      </c>
+      <c r="M88" s="6">
+        <f>IF(AND(ISNUMBER(G88), ISNUMBER(F88)), G88 - F88, "")</f>
         <v/>
       </c>
     </row>
@@ -15833,6 +17972,10 @@
         <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
+      <c r="M89" s="6">
+        <f>IF(AND(ISNUMBER(G89), ISNUMBER(F89)), G89 - F89, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -15860,6 +18003,10 @@
         <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
         <v/>
       </c>
+      <c r="M90" s="6">
+        <f>IF(AND(ISNUMBER(G90), ISNUMBER(F90)), G90 - F90, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -15887,6 +18034,10 @@
       </c>
       <c r="L91" s="6">
         <f>IF(AND(ISNUMBER(K91), ISNUMBER(C91)), K91 - C91, "")</f>
+        <v/>
+      </c>
+      <c r="M91" s="6">
+        <f>IF(AND(ISNUMBER(G91), ISNUMBER(F91)), G91 - F91, "")</f>
         <v/>
       </c>
     </row>
@@ -15916,6 +18067,10 @@
         <f>IF(AND(ISNUMBER(K92), ISNUMBER(C92)), K92 - C92, "")</f>
         <v/>
       </c>
+      <c r="M92" s="6">
+        <f>IF(AND(ISNUMBER(G92), ISNUMBER(F92)), G92 - F92, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -15943,6 +18098,10 @@
         <f>IF(AND(ISNUMBER(K93), ISNUMBER(C93)), K93 - C93, "")</f>
         <v/>
       </c>
+      <c r="M93" s="6">
+        <f>IF(AND(ISNUMBER(G93), ISNUMBER(F93)), G93 - F93, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -15970,6 +18129,10 @@
         <f>IF(AND(ISNUMBER(K94), ISNUMBER(C94)), K94 - C94, "")</f>
         <v/>
       </c>
+      <c r="M94" s="6">
+        <f>IF(AND(ISNUMBER(G94), ISNUMBER(F94)), G94 - F94, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -15997,6 +18160,10 @@
       </c>
       <c r="L95" s="6">
         <f>IF(AND(ISNUMBER(K95), ISNUMBER(C95)), K95 - C95, "")</f>
+        <v/>
+      </c>
+      <c r="M95" s="6">
+        <f>IF(AND(ISNUMBER(G95), ISNUMBER(F95)), G95 - F95, "")</f>
         <v/>
       </c>
     </row>
@@ -16026,6 +18193,10 @@
         <f>IF(AND(ISNUMBER(K96), ISNUMBER(C96)), K96 - C96, "")</f>
         <v/>
       </c>
+      <c r="M96" s="6">
+        <f>IF(AND(ISNUMBER(G96), ISNUMBER(F96)), G96 - F96, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -16053,6 +18224,10 @@
         <f>IF(AND(ISNUMBER(K97), ISNUMBER(C97)), K97 - C97, "")</f>
         <v/>
       </c>
+      <c r="M97" s="6">
+        <f>IF(AND(ISNUMBER(G97), ISNUMBER(F97)), G97 - F97, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
@@ -16080,6 +18255,10 @@
         <f>IF(AND(ISNUMBER(K98), ISNUMBER(C98)), K98 - C98, "")</f>
         <v/>
       </c>
+      <c r="M98" s="6">
+        <f>IF(AND(ISNUMBER(G98), ISNUMBER(F98)), G98 - F98, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
@@ -16107,6 +18286,10 @@
         <f>IF(AND(ISNUMBER(K99), ISNUMBER(C99)), K99 - C99, "")</f>
         <v/>
       </c>
+      <c r="M99" s="6">
+        <f>IF(AND(ISNUMBER(G99), ISNUMBER(F99)), G99 - F99, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -16134,6 +18317,10 @@
         <f>IF(AND(ISNUMBER(K100), ISNUMBER(C100)), K100 - C100, "")</f>
         <v/>
       </c>
+      <c r="M100" s="6">
+        <f>IF(AND(ISNUMBER(G100), ISNUMBER(F100)), G100 - F100, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -16161,6 +18348,10 @@
         <f>IF(AND(ISNUMBER(K101), ISNUMBER(C101)), K101 - C101, "")</f>
         <v/>
       </c>
+      <c r="M101" s="6">
+        <f>IF(AND(ISNUMBER(G101), ISNUMBER(F101)), G101 - F101, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -16188,6 +18379,10 @@
         <f>IF(AND(ISNUMBER(K102), ISNUMBER(C102)), K102 - C102, "")</f>
         <v/>
       </c>
+      <c r="M102" s="6">
+        <f>IF(AND(ISNUMBER(G102), ISNUMBER(F102)), G102 - F102, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -16215,6 +18410,10 @@
         <f>IF(AND(ISNUMBER(K103), ISNUMBER(C103)), K103 - C103, "")</f>
         <v/>
       </c>
+      <c r="M103" s="6">
+        <f>IF(AND(ISNUMBER(G103), ISNUMBER(F103)), G103 - F103, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -16244,6 +18443,10 @@
         <f>IF(AND(ISNUMBER(K104), ISNUMBER(C104)), K104 - C104, "")</f>
         <v/>
       </c>
+      <c r="M104" s="6">
+        <f>IF(AND(ISNUMBER(G104), ISNUMBER(F104)), G104 - F104, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -16271,6 +18474,10 @@
       </c>
       <c r="L105" s="6">
         <f>IF(AND(ISNUMBER(K105), ISNUMBER(C105)), K105 - C105, "")</f>
+        <v/>
+      </c>
+      <c r="M105" s="6">
+        <f>IF(AND(ISNUMBER(G105), ISNUMBER(F105)), G105 - F105, "")</f>
         <v/>
       </c>
     </row>
@@ -16294,7 +18501,22 @@
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7:L105">
-    <cfRule type="cellIs" priority="6" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="00C00000"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M105">
+    <cfRule type="cellIs" priority="12" operator="equal" stopIfTrue="1">
       <formula>""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="1000">
@@ -16309,7 +18531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:I105">
-    <cfRule type="expression" priority="3" dxfId="0" stopIfTrue="1">
+    <cfRule type="expression" priority="5" dxfId="0" stopIfTrue="1">
       <formula>OR(LEN(TRIM($I7))&gt;0,LEN(TRIM($H7))&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
